--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57426534116278</v>
+        <v>21.57426534116274</v>
       </c>
       <c r="C2">
-        <v>17.98831257488809</v>
+        <v>17.98831257488806</v>
       </c>
       <c r="D2">
-        <v>3.056845028460966</v>
+        <v>3.056845028460902</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.00130224649757</v>
+        <v>40.0013022464976</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.47758449734759</v>
+        <v>25.47758449734764</v>
       </c>
       <c r="I2">
-        <v>7.104524600935225</v>
+        <v>7.104524600935309</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.962333390733956</v>
+        <v>9.962333390733971</v>
       </c>
       <c r="L2">
-        <v>15.65309788582217</v>
+        <v>15.6530978858221</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,7 +453,7 @@
         <v>20.03705689937851</v>
       </c>
       <c r="C3">
-        <v>16.69631775539415</v>
+        <v>16.69631775539406</v>
       </c>
       <c r="D3">
         <v>3.084044428590508</v>
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.92256119140998</v>
+        <v>37.92256119140994</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.534341634326</v>
+        <v>24.53434163432593</v>
       </c>
       <c r="I3">
-        <v>7.072758656541144</v>
+        <v>7.072758656541202</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.485955485099471</v>
+        <v>9.485955485099524</v>
       </c>
       <c r="L3">
-        <v>14.56387644860175</v>
+        <v>14.56387644860172</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04567353246153</v>
+        <v>19.0456735324614</v>
       </c>
       <c r="C4">
-        <v>15.86483111754067</v>
+        <v>15.86483111754062</v>
       </c>
       <c r="D4">
-        <v>3.102796706613628</v>
+        <v>3.102796706613619</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.96512998458964</v>
+        <v>23.96512998458968</v>
       </c>
       <c r="I4">
-        <v>7.05741953666284</v>
+        <v>7.057419536662898</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.191338541672808</v>
+        <v>9.191338541672831</v>
       </c>
       <c r="L4">
-        <v>13.86246046107953</v>
+        <v>13.86246046107942</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62950218107671</v>
+        <v>18.62950218107651</v>
       </c>
       <c r="C5">
-        <v>15.51617740687166</v>
+        <v>15.51617740687156</v>
       </c>
       <c r="D5">
-        <v>3.110905874510709</v>
+        <v>3.110905874510884</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.1087494601429</v>
+        <v>36.10874946014303</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.73573825994824</v>
+        <v>23.73573825994844</v>
       </c>
       <c r="I5">
-        <v>7.052162113041403</v>
+        <v>7.052162113041333</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.070855107382702</v>
+        <v>9.070855107382632</v>
       </c>
       <c r="L5">
-        <v>13.56827236622817</v>
+        <v>13.56827236622807</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55965570771988</v>
+        <v>18.55965570771998</v>
       </c>
       <c r="C6">
-        <v>15.45768496243346</v>
+        <v>15.45768496243347</v>
       </c>
       <c r="D6">
-        <v>3.112279323602685</v>
+        <v>3.112279323602701</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.02115082110418</v>
+        <v>36.02115082110407</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.69780537955543</v>
+        <v>23.69780537955532</v>
       </c>
       <c r="I6">
-        <v>7.051347589915986</v>
+        <v>7.051347589915996</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.05082695893196</v>
+        <v>9.050826958931953</v>
       </c>
       <c r="L6">
-        <v>13.51891388123222</v>
+        <v>13.5189138812323</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0401104781658</v>
+        <v>19.04011047816579</v>
       </c>
       <c r="C7">
-        <v>15.86016906548721</v>
+        <v>15.86016906548725</v>
       </c>
       <c r="D7">
-        <v>3.102904236715435</v>
+        <v>3.102904236715502</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.62843913734484</v>
+        <v>36.62843913734481</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.96202582884555</v>
+        <v>23.96202582884556</v>
       </c>
       <c r="I7">
-        <v>7.057344680485282</v>
+        <v>7.057344680485232</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.189715216647143</v>
+        <v>9.189715216647075</v>
       </c>
       <c r="L7">
-        <v>13.85852695714521</v>
+        <v>13.85852695714524</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05396203451954</v>
+        <v>21.05396203451958</v>
       </c>
       <c r="C8">
-        <v>17.55062816308796</v>
+        <v>17.55062816308795</v>
       </c>
       <c r="D8">
-        <v>3.065766458629491</v>
+        <v>3.065766458629501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.28695024808548</v>
+        <v>39.2869502480855</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.1503211470421</v>
+        <v>25.15032114704215</v>
       </c>
       <c r="I8">
-        <v>7.092673846815551</v>
+        <v>7.092673846815662</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.798574396639612</v>
+        <v>9.798574396639625</v>
       </c>
       <c r="L8">
-        <v>15.28421152334001</v>
+        <v>15.28421152333999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63693057644469</v>
+        <v>24.63693057644451</v>
       </c>
       <c r="C9">
-        <v>20.57300797676591</v>
+        <v>20.57300797676585</v>
       </c>
       <c r="D9">
-        <v>3.01175423337776</v>
+        <v>3.011754233377788</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.4063459300347</v>
+        <v>44.40634593003452</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.55850305417262</v>
+        <v>27.55850305417251</v>
       </c>
       <c r="I9">
-        <v>7.197588996823335</v>
+        <v>7.197588996823272</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.97250336742475</v>
+        <v>10.97250336742474</v>
       </c>
       <c r="L9">
-        <v>17.82867097416408</v>
+        <v>17.82867097416402</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.06301244269604</v>
+        <v>27.06301244269612</v>
       </c>
       <c r="C10">
-        <v>22.6314574589507</v>
+        <v>22.63145745895078</v>
       </c>
       <c r="D10">
-        <v>2.987699307027701</v>
+        <v>2.987699307027727</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.10876947930502</v>
+        <v>48.10876947930517</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.37791444797821</v>
+        <v>29.37791444797829</v>
       </c>
       <c r="I10">
-        <v>7.300263928055814</v>
+        <v>7.300263928055882</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.82080453443679</v>
+        <v>11.82080453443678</v>
       </c>
       <c r="L10">
         <v>19.55684380637225</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.12622251382515</v>
+        <v>28.1262225138251</v>
       </c>
       <c r="C11">
-        <v>23.53690868665844</v>
+        <v>23.53690868665824</v>
       </c>
       <c r="D11">
-        <v>2.981289022050262</v>
+        <v>2.981289022050223</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.78326065283934</v>
+        <v>49.78326065283914</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.21840255038341</v>
+        <v>30.2184025503833</v>
       </c>
       <c r="I11">
-        <v>7.353483746939732</v>
+        <v>7.353483746939754</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.24137790337494</v>
+        <v>12.24137790337486</v>
       </c>
       <c r="L11">
-        <v>20.31547255755946</v>
+        <v>20.31547255755939</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.52343510775399</v>
+        <v>28.52343510775415</v>
       </c>
       <c r="C12">
         <v>23.87573744686234</v>
       </c>
       <c r="D12">
-        <v>2.979628564700771</v>
+        <v>2.979628564700784</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.41641228735798</v>
+        <v>50.41641228735815</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.53878490152238</v>
+        <v>30.53878490152246</v>
       </c>
       <c r="I12">
-        <v>7.374662596133742</v>
+        <v>7.374662596133779</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.42003098217036</v>
+        <v>12.42003098217037</v>
       </c>
       <c r="L12">
-        <v>20.59908851583996</v>
+        <v>20.59908851584001</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.43812134729096</v>
+        <v>28.43812134729093</v>
       </c>
       <c r="C13">
-        <v>23.80293747573996</v>
+        <v>23.80293747573992</v>
       </c>
       <c r="D13">
-        <v>2.979950024285078</v>
+        <v>2.979950024285052</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.28008422680125</v>
+        <v>50.2800842268013</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.46968581107786</v>
+        <v>30.46968581107787</v>
       </c>
       <c r="I13">
-        <v>7.370054202146389</v>
+        <v>7.370054202146398</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.3816472360597</v>
+        <v>12.38164723605969</v>
       </c>
       <c r="L13">
-        <v>20.53816432674383</v>
+        <v>20.53816432674384</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.15900713373757</v>
+        <v>28.15900713373748</v>
       </c>
       <c r="C14">
-        <v>23.56486289163678</v>
+        <v>23.56486289163683</v>
       </c>
       <c r="D14">
-        <v>2.981136316479921</v>
+        <v>2.981136316479895</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.24471648979512</v>
+        <v>30.24471648979514</v>
       </c>
       <c r="I14">
-        <v>7.355205039589409</v>
+        <v>7.355205039589372</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.25611775400113</v>
+        <v>12.25611775400112</v>
       </c>
       <c r="L14">
-        <v>20.33887731010035</v>
+        <v>20.33887731010031</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>27.9873513120325</v>
       </c>
       <c r="C15">
-        <v>23.4185214385336</v>
+        <v>23.41852143853373</v>
       </c>
       <c r="D15">
-        <v>2.981966578293908</v>
+        <v>2.981966578293865</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.56285750813706</v>
+        <v>49.56285750813697</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.10720029779477</v>
+        <v>30.10720029779467</v>
       </c>
       <c r="I15">
-        <v>7.346245894481708</v>
+        <v>7.346245894481733</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.17895304470312</v>
+        <v>12.17895304470316</v>
       </c>
       <c r="L15">
-        <v>20.21634115536795</v>
+        <v>20.216341155368</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.99274956163348</v>
+        <v>26.99274956163332</v>
       </c>
       <c r="C16">
-        <v>22.57169459416578</v>
+        <v>22.57169459416566</v>
       </c>
       <c r="D16">
-        <v>2.988218869584115</v>
+        <v>2.988218869584057</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.99917630565436</v>
+        <v>47.99917630565422</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.3232649633975</v>
+        <v>29.32326496339747</v>
       </c>
       <c r="I16">
-        <v>7.296924327631475</v>
+        <v>7.296924327631396</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.79571585013256</v>
+        <v>11.79571585013253</v>
       </c>
       <c r="L16">
-        <v>19.50673625669821</v>
+        <v>19.50673625669809</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.37251475703009</v>
+        <v>26.37251475703019</v>
       </c>
       <c r="C17">
-        <v>22.04453723101545</v>
+        <v>22.04453723101538</v>
       </c>
       <c r="D17">
-        <v>2.993291606575879</v>
+        <v>2.993291606575866</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.03767824613313</v>
+        <v>47.03767824613315</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.8457884415227</v>
+        <v>28.84578844152267</v>
       </c>
       <c r="I17">
-        <v>7.268395476848968</v>
+        <v>7.268395476848985</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.57553996043157</v>
+        <v>11.57553996043161</v>
       </c>
       <c r="L17">
-        <v>19.06456567628265</v>
+        <v>19.06456567628271</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.01193929537373</v>
+        <v>26.01193929537381</v>
       </c>
       <c r="C18">
-        <v>21.73839000206504</v>
+        <v>21.73839000206513</v>
       </c>
       <c r="D18">
-        <v>2.996628005228993</v>
+        <v>2.9966280052288</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.48369264011342</v>
+        <v>46.48369264011336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.57234282663309</v>
+        <v>28.572342826633</v>
       </c>
       <c r="I18">
-        <v>7.252593541866877</v>
+        <v>7.252593541866823</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.44863301546907</v>
+        <v>11.44863301546909</v>
       </c>
       <c r="L18">
-        <v>18.8076298902974</v>
+        <v>18.80762989029745</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.88918471619332</v>
+        <v>25.8891847161933</v>
       </c>
       <c r="C19">
-        <v>21.63421742190578</v>
+        <v>21.63421742190582</v>
       </c>
       <c r="D19">
-        <v>2.997826348426858</v>
+        <v>2.997826348426939</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.29594719702791</v>
+        <v>46.29594719702796</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.47995614930585</v>
+        <v>28.47995614930588</v>
       </c>
       <c r="I19">
         <v>7.247344994235689</v>
@@ -1088,7 +1088,7 @@
         <v>11.4056170303153</v>
       </c>
       <c r="L19">
-        <v>18.7201790072541</v>
+        <v>18.72017900725411</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.43893369054254</v>
+        <v>26.43893369054258</v>
       </c>
       <c r="C20">
-        <v>22.10095559225219</v>
+        <v>22.10095559225224</v>
       </c>
       <c r="D20">
-        <v>2.992707495644313</v>
+        <v>2.992707495644249</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.14012769490632</v>
+        <v>47.14012769490618</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28.89649226801346</v>
+        <v>28.89649226801331</v>
       </c>
       <c r="I20">
-        <v>7.271368974963933</v>
+        <v>7.271368974963865</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.5990053679002</v>
+        <v>11.59900536790019</v>
       </c>
       <c r="L20">
-        <v>19.11190368959335</v>
+        <v>19.11190368959337</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.2411327855602</v>
+        <v>28.24113278556018</v>
       </c>
       <c r="C21">
-        <v>23.63489745598865</v>
+        <v>23.63489745598831</v>
       </c>
       <c r="D21">
-        <v>2.980766045909287</v>
+        <v>2.980766045909332</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.96601142376502</v>
+        <v>49.96601142376487</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.31073563027405</v>
+        <v>30.31073563027397</v>
       </c>
       <c r="I21">
         <v>7.359537999518944</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.29304557336418</v>
+        <v>12.29304557336412</v>
       </c>
       <c r="L21">
-        <v>20.39750948748601</v>
+        <v>20.39750948748593</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>29.38772232753563</v>
       </c>
       <c r="C22">
-        <v>24.6140672425025</v>
+        <v>24.61406724250239</v>
       </c>
       <c r="D22">
-        <v>2.977499841851495</v>
+        <v>2.977499841851546</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.80775645978269</v>
+        <v>51.80775645978279</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.24750911152387</v>
+        <v>31.24750911152394</v>
       </c>
       <c r="I22">
-        <v>7.423189309881273</v>
+        <v>7.423189309881289</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.80926823807535</v>
+        <v>12.80926823807532</v>
       </c>
       <c r="L22">
-        <v>21.21656340697885</v>
+        <v>21.21656340697884</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.77847376742765</v>
+        <v>28.77847376742766</v>
       </c>
       <c r="C23">
-        <v>24.09345263364466</v>
+        <v>24.09345263364464</v>
       </c>
       <c r="D23">
-        <v>2.978784670458997</v>
+        <v>2.978784670459024</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>30.74627908795718</v>
       </c>
       <c r="I23">
-        <v>7.388633539651769</v>
+        <v>7.388633539651722</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.53481668762654</v>
+        <v>12.53481668762658</v>
       </c>
       <c r="L23">
-        <v>20.78124524023946</v>
+        <v>20.78124524023947</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.40891816202925</v>
+        <v>26.40891816202922</v>
       </c>
       <c r="C24">
-        <v>22.07545846633562</v>
+        <v>22.0754584663356</v>
       </c>
       <c r="D24">
-        <v>2.992970272427231</v>
+        <v>2.992970272427117</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.87356577868835</v>
+        <v>28.87356577868836</v>
       </c>
       <c r="I24">
-        <v>7.270022795186695</v>
+        <v>7.270022795186715</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.58839767396292</v>
+        <v>11.58839767396294</v>
       </c>
       <c r="L24">
-        <v>19.09051068662803</v>
+        <v>19.09051068662802</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.70520720102286</v>
+        <v>23.70520720102287</v>
       </c>
       <c r="C25">
-        <v>19.78512819943499</v>
+        <v>19.78512819943496</v>
       </c>
       <c r="D25">
-        <v>3.023961825270651</v>
+        <v>3.023961825270663</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.03218610442347</v>
+        <v>43.03218610442329</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.89862274109775</v>
+        <v>26.8986227410976</v>
       </c>
       <c r="I25">
-        <v>7.165011012785982</v>
+        <v>7.165011012785902</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.6573951509595</v>
+        <v>10.65739515095948</v>
       </c>
       <c r="L25">
-        <v>17.16608173826517</v>
+        <v>17.1660817382652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57426534116274</v>
+        <v>21.57426534116278</v>
       </c>
       <c r="C2">
-        <v>17.98831257488806</v>
+        <v>17.98831257488809</v>
       </c>
       <c r="D2">
-        <v>3.056845028460902</v>
+        <v>3.056845028460966</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.0013022464976</v>
+        <v>40.00130224649757</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.47758449734764</v>
+        <v>25.47758449734759</v>
       </c>
       <c r="I2">
-        <v>7.104524600935309</v>
+        <v>7.104524600935225</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.962333390733971</v>
+        <v>9.962333390733956</v>
       </c>
       <c r="L2">
-        <v>15.6530978858221</v>
+        <v>15.65309788582217</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,7 +453,7 @@
         <v>20.03705689937851</v>
       </c>
       <c r="C3">
-        <v>16.69631775539406</v>
+        <v>16.69631775539415</v>
       </c>
       <c r="D3">
         <v>3.084044428590508</v>
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.92256119140994</v>
+        <v>37.92256119140998</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.53434163432593</v>
+        <v>24.534341634326</v>
       </c>
       <c r="I3">
-        <v>7.072758656541202</v>
+        <v>7.072758656541144</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.485955485099524</v>
+        <v>9.485955485099471</v>
       </c>
       <c r="L3">
-        <v>14.56387644860172</v>
+        <v>14.56387644860175</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0456735324614</v>
+        <v>19.04567353246153</v>
       </c>
       <c r="C4">
-        <v>15.86483111754062</v>
+        <v>15.86483111754067</v>
       </c>
       <c r="D4">
-        <v>3.102796706613619</v>
+        <v>3.102796706613628</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.96512998458968</v>
+        <v>23.96512998458964</v>
       </c>
       <c r="I4">
-        <v>7.057419536662898</v>
+        <v>7.05741953666284</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.191338541672831</v>
+        <v>9.191338541672808</v>
       </c>
       <c r="L4">
-        <v>13.86246046107942</v>
+        <v>13.86246046107953</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62950218107651</v>
+        <v>18.62950218107671</v>
       </c>
       <c r="C5">
-        <v>15.51617740687156</v>
+        <v>15.51617740687166</v>
       </c>
       <c r="D5">
-        <v>3.110905874510884</v>
+        <v>3.110905874510709</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.10874946014303</v>
+        <v>36.1087494601429</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.73573825994844</v>
+        <v>23.73573825994824</v>
       </c>
       <c r="I5">
-        <v>7.052162113041333</v>
+        <v>7.052162113041403</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.070855107382632</v>
+        <v>9.070855107382702</v>
       </c>
       <c r="L5">
-        <v>13.56827236622807</v>
+        <v>13.56827236622817</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55965570771998</v>
+        <v>18.55965570771988</v>
       </c>
       <c r="C6">
-        <v>15.45768496243347</v>
+        <v>15.45768496243346</v>
       </c>
       <c r="D6">
-        <v>3.112279323602701</v>
+        <v>3.112279323602685</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.02115082110407</v>
+        <v>36.02115082110418</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.69780537955532</v>
+        <v>23.69780537955543</v>
       </c>
       <c r="I6">
-        <v>7.051347589915996</v>
+        <v>7.051347589915986</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.050826958931953</v>
+        <v>9.05082695893196</v>
       </c>
       <c r="L6">
-        <v>13.5189138812323</v>
+        <v>13.51891388123222</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04011047816579</v>
+        <v>19.0401104781658</v>
       </c>
       <c r="C7">
-        <v>15.86016906548725</v>
+        <v>15.86016906548721</v>
       </c>
       <c r="D7">
-        <v>3.102904236715502</v>
+        <v>3.102904236715435</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.62843913734481</v>
+        <v>36.62843913734484</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.96202582884556</v>
+        <v>23.96202582884555</v>
       </c>
       <c r="I7">
-        <v>7.057344680485232</v>
+        <v>7.057344680485282</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.189715216647075</v>
+        <v>9.189715216647143</v>
       </c>
       <c r="L7">
-        <v>13.85852695714524</v>
+        <v>13.85852695714521</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05396203451958</v>
+        <v>21.05396203451954</v>
       </c>
       <c r="C8">
-        <v>17.55062816308795</v>
+        <v>17.55062816308796</v>
       </c>
       <c r="D8">
-        <v>3.065766458629501</v>
+        <v>3.065766458629491</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.2869502480855</v>
+        <v>39.28695024808548</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.15032114704215</v>
+        <v>25.1503211470421</v>
       </c>
       <c r="I8">
-        <v>7.092673846815662</v>
+        <v>7.092673846815551</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.798574396639625</v>
+        <v>9.798574396639612</v>
       </c>
       <c r="L8">
-        <v>15.28421152333999</v>
+        <v>15.28421152334001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63693057644451</v>
+        <v>24.63693057644469</v>
       </c>
       <c r="C9">
-        <v>20.57300797676585</v>
+        <v>20.57300797676591</v>
       </c>
       <c r="D9">
-        <v>3.011754233377788</v>
+        <v>3.01175423337776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.40634593003452</v>
+        <v>44.4063459300347</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.55850305417251</v>
+        <v>27.55850305417262</v>
       </c>
       <c r="I9">
-        <v>7.197588996823272</v>
+        <v>7.197588996823335</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.97250336742474</v>
+        <v>10.97250336742475</v>
       </c>
       <c r="L9">
-        <v>17.82867097416402</v>
+        <v>17.82867097416408</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.06301244269612</v>
+        <v>27.06301244269604</v>
       </c>
       <c r="C10">
-        <v>22.63145745895078</v>
+        <v>22.6314574589507</v>
       </c>
       <c r="D10">
-        <v>2.987699307027727</v>
+        <v>2.987699307027701</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.10876947930517</v>
+        <v>48.10876947930502</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.37791444797829</v>
+        <v>29.37791444797821</v>
       </c>
       <c r="I10">
-        <v>7.300263928055882</v>
+        <v>7.300263928055814</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.82080453443678</v>
+        <v>11.82080453443679</v>
       </c>
       <c r="L10">
         <v>19.55684380637225</v>
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.1262225138251</v>
+        <v>28.12622251382515</v>
       </c>
       <c r="C11">
-        <v>23.53690868665824</v>
+        <v>23.53690868665844</v>
       </c>
       <c r="D11">
-        <v>2.981289022050223</v>
+        <v>2.981289022050262</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.78326065283914</v>
+        <v>49.78326065283934</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.2184025503833</v>
+        <v>30.21840255038341</v>
       </c>
       <c r="I11">
-        <v>7.353483746939754</v>
+        <v>7.353483746939732</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.24137790337486</v>
+        <v>12.24137790337494</v>
       </c>
       <c r="L11">
-        <v>20.31547255755939</v>
+        <v>20.31547255755946</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.52343510775415</v>
+        <v>28.52343510775399</v>
       </c>
       <c r="C12">
         <v>23.87573744686234</v>
       </c>
       <c r="D12">
-        <v>2.979628564700784</v>
+        <v>2.979628564700771</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.41641228735815</v>
+        <v>50.41641228735798</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30.53878490152246</v>
+        <v>30.53878490152238</v>
       </c>
       <c r="I12">
-        <v>7.374662596133779</v>
+        <v>7.374662596133742</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.42003098217037</v>
+        <v>12.42003098217036</v>
       </c>
       <c r="L12">
-        <v>20.59908851584001</v>
+        <v>20.59908851583996</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.43812134729093</v>
+        <v>28.43812134729096</v>
       </c>
       <c r="C13">
-        <v>23.80293747573992</v>
+        <v>23.80293747573996</v>
       </c>
       <c r="D13">
-        <v>2.979950024285052</v>
+        <v>2.979950024285078</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.2800842268013</v>
+        <v>50.28008422680125</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30.46968581107787</v>
+        <v>30.46968581107786</v>
       </c>
       <c r="I13">
-        <v>7.370054202146398</v>
+        <v>7.370054202146389</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.38164723605969</v>
+        <v>12.3816472360597</v>
       </c>
       <c r="L13">
-        <v>20.53816432674384</v>
+        <v>20.53816432674383</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.15900713373748</v>
+        <v>28.15900713373757</v>
       </c>
       <c r="C14">
-        <v>23.56486289163683</v>
+        <v>23.56486289163678</v>
       </c>
       <c r="D14">
-        <v>2.981136316479895</v>
+        <v>2.981136316479921</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.24471648979514</v>
+        <v>30.24471648979512</v>
       </c>
       <c r="I14">
-        <v>7.355205039589372</v>
+        <v>7.355205039589409</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.25611775400112</v>
+        <v>12.25611775400113</v>
       </c>
       <c r="L14">
-        <v>20.33887731010031</v>
+        <v>20.33887731010035</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>27.9873513120325</v>
       </c>
       <c r="C15">
-        <v>23.41852143853373</v>
+        <v>23.4185214385336</v>
       </c>
       <c r="D15">
-        <v>2.981966578293865</v>
+        <v>2.981966578293908</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.56285750813697</v>
+        <v>49.56285750813706</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.10720029779467</v>
+        <v>30.10720029779477</v>
       </c>
       <c r="I15">
-        <v>7.346245894481733</v>
+        <v>7.346245894481708</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.17895304470316</v>
+        <v>12.17895304470312</v>
       </c>
       <c r="L15">
-        <v>20.216341155368</v>
+        <v>20.21634115536795</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.99274956163332</v>
+        <v>26.99274956163348</v>
       </c>
       <c r="C16">
-        <v>22.57169459416566</v>
+        <v>22.57169459416578</v>
       </c>
       <c r="D16">
-        <v>2.988218869584057</v>
+        <v>2.988218869584115</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.99917630565422</v>
+        <v>47.99917630565436</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.32326496339747</v>
+        <v>29.3232649633975</v>
       </c>
       <c r="I16">
-        <v>7.296924327631396</v>
+        <v>7.296924327631475</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.79571585013253</v>
+        <v>11.79571585013256</v>
       </c>
       <c r="L16">
-        <v>19.50673625669809</v>
+        <v>19.50673625669821</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.37251475703019</v>
+        <v>26.37251475703009</v>
       </c>
       <c r="C17">
-        <v>22.04453723101538</v>
+        <v>22.04453723101545</v>
       </c>
       <c r="D17">
-        <v>2.993291606575866</v>
+        <v>2.993291606575879</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.03767824613315</v>
+        <v>47.03767824613313</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28.84578844152267</v>
+        <v>28.8457884415227</v>
       </c>
       <c r="I17">
-        <v>7.268395476848985</v>
+        <v>7.268395476848968</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.57553996043161</v>
+        <v>11.57553996043157</v>
       </c>
       <c r="L17">
-        <v>19.06456567628271</v>
+        <v>19.06456567628265</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.01193929537381</v>
+        <v>26.01193929537373</v>
       </c>
       <c r="C18">
-        <v>21.73839000206513</v>
+        <v>21.73839000206504</v>
       </c>
       <c r="D18">
-        <v>2.9966280052288</v>
+        <v>2.996628005228993</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.48369264011336</v>
+        <v>46.48369264011342</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.572342826633</v>
+        <v>28.57234282663309</v>
       </c>
       <c r="I18">
-        <v>7.252593541866823</v>
+        <v>7.252593541866877</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.44863301546909</v>
+        <v>11.44863301546907</v>
       </c>
       <c r="L18">
-        <v>18.80762989029745</v>
+        <v>18.8076298902974</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.8891847161933</v>
+        <v>25.88918471619332</v>
       </c>
       <c r="C19">
-        <v>21.63421742190582</v>
+        <v>21.63421742190578</v>
       </c>
       <c r="D19">
-        <v>2.997826348426939</v>
+        <v>2.997826348426858</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.29594719702796</v>
+        <v>46.29594719702791</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.47995614930588</v>
+        <v>28.47995614930585</v>
       </c>
       <c r="I19">
         <v>7.247344994235689</v>
@@ -1088,7 +1088,7 @@
         <v>11.4056170303153</v>
       </c>
       <c r="L19">
-        <v>18.72017900725411</v>
+        <v>18.7201790072541</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.43893369054258</v>
+        <v>26.43893369054254</v>
       </c>
       <c r="C20">
-        <v>22.10095559225224</v>
+        <v>22.10095559225219</v>
       </c>
       <c r="D20">
-        <v>2.992707495644249</v>
+        <v>2.992707495644313</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.14012769490618</v>
+        <v>47.14012769490632</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28.89649226801331</v>
+        <v>28.89649226801346</v>
       </c>
       <c r="I20">
-        <v>7.271368974963865</v>
+        <v>7.271368974963933</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.59900536790019</v>
+        <v>11.5990053679002</v>
       </c>
       <c r="L20">
-        <v>19.11190368959337</v>
+        <v>19.11190368959335</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24113278556018</v>
+        <v>28.2411327855602</v>
       </c>
       <c r="C21">
-        <v>23.63489745598831</v>
+        <v>23.63489745598865</v>
       </c>
       <c r="D21">
-        <v>2.980766045909332</v>
+        <v>2.980766045909287</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.96601142376487</v>
+        <v>49.96601142376502</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.31073563027397</v>
+        <v>30.31073563027405</v>
       </c>
       <c r="I21">
         <v>7.359537999518944</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.29304557336412</v>
+        <v>12.29304557336418</v>
       </c>
       <c r="L21">
-        <v>20.39750948748593</v>
+        <v>20.39750948748601</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>29.38772232753563</v>
       </c>
       <c r="C22">
-        <v>24.61406724250239</v>
+        <v>24.6140672425025</v>
       </c>
       <c r="D22">
-        <v>2.977499841851546</v>
+        <v>2.977499841851495</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.80775645978279</v>
+        <v>51.80775645978269</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.24750911152394</v>
+        <v>31.24750911152387</v>
       </c>
       <c r="I22">
-        <v>7.423189309881289</v>
+        <v>7.423189309881273</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.80926823807532</v>
+        <v>12.80926823807535</v>
       </c>
       <c r="L22">
-        <v>21.21656340697884</v>
+        <v>21.21656340697885</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.77847376742766</v>
+        <v>28.77847376742765</v>
       </c>
       <c r="C23">
-        <v>24.09345263364464</v>
+        <v>24.09345263364466</v>
       </c>
       <c r="D23">
-        <v>2.978784670459024</v>
+        <v>2.978784670458997</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>30.74627908795718</v>
       </c>
       <c r="I23">
-        <v>7.388633539651722</v>
+        <v>7.388633539651769</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.53481668762658</v>
+        <v>12.53481668762654</v>
       </c>
       <c r="L23">
-        <v>20.78124524023947</v>
+        <v>20.78124524023946</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.40891816202922</v>
+        <v>26.40891816202925</v>
       </c>
       <c r="C24">
-        <v>22.0754584663356</v>
+        <v>22.07545846633562</v>
       </c>
       <c r="D24">
-        <v>2.992970272427117</v>
+        <v>2.992970272427231</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28.87356577868836</v>
+        <v>28.87356577868835</v>
       </c>
       <c r="I24">
-        <v>7.270022795186715</v>
+        <v>7.270022795186695</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.58839767396294</v>
+        <v>11.58839767396292</v>
       </c>
       <c r="L24">
-        <v>19.09051068662802</v>
+        <v>19.09051068662803</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.70520720102287</v>
+        <v>23.70520720102286</v>
       </c>
       <c r="C25">
-        <v>19.78512819943496</v>
+        <v>19.78512819943499</v>
       </c>
       <c r="D25">
-        <v>3.023961825270663</v>
+        <v>3.023961825270651</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.03218610442329</v>
+        <v>43.03218610442347</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.8986227410976</v>
+        <v>26.89862274109775</v>
       </c>
       <c r="I25">
-        <v>7.165011012785902</v>
+        <v>7.165011012785982</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.65739515095948</v>
+        <v>10.6573951509595</v>
       </c>
       <c r="L25">
-        <v>17.1660817382652</v>
+        <v>17.16608173826517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57426534116278</v>
+        <v>21.46537610292213</v>
       </c>
       <c r="C2">
-        <v>17.98831257488809</v>
+        <v>17.84700263795903</v>
       </c>
       <c r="D2">
-        <v>3.056845028460966</v>
+        <v>3.197914026549499</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.00130224649757</v>
+        <v>40.1487684325536</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.063756785323807</v>
       </c>
       <c r="H2">
-        <v>25.47758449734759</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.104524600935225</v>
+        <v>25.64306235668968</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.052595254214255</v>
       </c>
       <c r="K2">
-        <v>9.962333390733956</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.65309788582217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.944713687528381</v>
+      </c>
+      <c r="M2">
+        <v>15.59211488984818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03705689937851</v>
+        <v>19.93282449999234</v>
       </c>
       <c r="C3">
-        <v>16.69631775539415</v>
+        <v>16.55978400211198</v>
       </c>
       <c r="D3">
-        <v>3.084044428590508</v>
+        <v>3.229279479719831</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.92256119140998</v>
+        <v>38.10763610724027</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.075855598786557</v>
       </c>
       <c r="H3">
-        <v>24.534341634326</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.072758656541144</v>
+        <v>24.7230191910163</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.019345577811634</v>
       </c>
       <c r="K3">
-        <v>9.485955485099471</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.56387644860175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.468833246968211</v>
+      </c>
+      <c r="M3">
+        <v>14.50485865191334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04567353246153</v>
+        <v>18.9444162383204</v>
       </c>
       <c r="C4">
-        <v>15.86483111754067</v>
+        <v>15.73129961764707</v>
       </c>
       <c r="D4">
-        <v>3.102796706613628</v>
+        <v>3.250470445682205</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.63553477118266</v>
+        <v>36.8457608904756</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.083425920937597</v>
       </c>
       <c r="H4">
-        <v>23.96512998458964</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.05741953666284</v>
+        <v>24.16881380679727</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.003079297817007</v>
       </c>
       <c r="K4">
-        <v>9.191338541672808</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.86246046107953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.174474319577691</v>
+      </c>
+      <c r="M4">
+        <v>13.8046098046345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62950218107671</v>
+        <v>18.52948978482489</v>
       </c>
       <c r="C5">
-        <v>15.51617740687166</v>
+        <v>15.38388898681316</v>
       </c>
       <c r="D5">
-        <v>3.110905874510709</v>
+        <v>3.259548481693249</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.1087494601429</v>
+        <v>36.32974241884592</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.086550068050488</v>
       </c>
       <c r="H5">
-        <v>23.73573825994824</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>7.052162113041403</v>
+        <v>23.94571670716809</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.997440445874857</v>
       </c>
       <c r="K5">
-        <v>9.070855107382702</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.56827236622817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.054084766962164</v>
+      </c>
+      <c r="M5">
+        <v>13.51088724511867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55965570771988</v>
+        <v>18.45985208983837</v>
       </c>
       <c r="C6">
-        <v>15.45768496243346</v>
+        <v>15.32560419616302</v>
       </c>
       <c r="D6">
-        <v>3.112279323602685</v>
+        <v>3.261081446674653</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.02115082110418</v>
+        <v>36.24396273074348</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.087071295153785</v>
       </c>
       <c r="H6">
-        <v>23.69780537955543</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.051347589915986</v>
+        <v>23.90883947385174</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.996562380825281</v>
       </c>
       <c r="K6">
-        <v>9.05082695893196</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.51891388123222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.034071545800556</v>
+      </c>
+      <c r="M6">
+        <v>13.46160543773048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0401104781658</v>
+        <v>18.93886983697748</v>
       </c>
       <c r="C7">
-        <v>15.86016906548721</v>
+        <v>15.72665424814537</v>
       </c>
       <c r="D7">
-        <v>3.102904236715435</v>
+        <v>3.250591136739435</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.62843913734484</v>
+        <v>36.83880837152822</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.083467891146085</v>
       </c>
       <c r="H7">
-        <v>23.96202582884555</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7.057344680485282</v>
+        <v>24.16579383405319</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.002999311616915</v>
       </c>
       <c r="K7">
-        <v>9.189715216647143</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.85852695714521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.172852305431892</v>
+      </c>
+      <c r="M7">
+        <v>13.80068262050391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05396203451954</v>
+        <v>20.94665649789197</v>
       </c>
       <c r="C8">
-        <v>17.55062816308796</v>
+        <v>17.41095198913189</v>
       </c>
       <c r="D8">
-        <v>3.065766458629491</v>
+        <v>3.208299849092183</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.28695024808548</v>
+        <v>39.44695816881416</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.067901321226182</v>
       </c>
       <c r="H8">
-        <v>25.1503211470421</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>7.092673846815551</v>
+        <v>25.32363389873878</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.040236563688665</v>
       </c>
       <c r="K8">
-        <v>9.798574396639612</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.28421152334001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.78113648410482</v>
+      </c>
+      <c r="M8">
+        <v>15.22391440481899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63693057644469</v>
+        <v>24.51849316173257</v>
       </c>
       <c r="C9">
-        <v>20.57300797676591</v>
+        <v>20.42168496176292</v>
       </c>
       <c r="D9">
-        <v>3.01175423337776</v>
+        <v>3.142985945470375</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.4063459300347</v>
+        <v>44.48366242797757</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.038318466824084</v>
       </c>
       <c r="H9">
-        <v>27.55850305417262</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7.197588996823335</v>
+        <v>27.67850586448492</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.148739612034966</v>
       </c>
       <c r="K9">
-        <v>10.97250336742475</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.82867097416408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.95352670069091</v>
+      </c>
+      <c r="M9">
+        <v>17.76322812214371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.06301244269604</v>
+        <v>26.93662235469045</v>
       </c>
       <c r="C10">
-        <v>22.6314574589507</v>
+        <v>22.47164032151799</v>
       </c>
       <c r="D10">
-        <v>2.987699307027701</v>
+        <v>3.109524032622755</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.10876947930502</v>
+        <v>48.13443041860977</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.016872782032224</v>
       </c>
       <c r="H10">
-        <v>29.37791444797821</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>7.300263928055814</v>
+        <v>29.4629199405624</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.253912188193618</v>
       </c>
       <c r="K10">
-        <v>11.82080453443679</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.55684380637225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.80038582294959</v>
+      </c>
+      <c r="M10">
+        <v>19.48734170612156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.12622251382515</v>
+        <v>27.99620115404354</v>
       </c>
       <c r="C11">
-        <v>23.53690868665844</v>
+        <v>23.37318153905675</v>
       </c>
       <c r="D11">
-        <v>2.981289022050262</v>
+        <v>3.098504761414046</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.78326065283934</v>
+        <v>49.78717067105809</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.007103792004459</v>
       </c>
       <c r="H11">
-        <v>30.21840255038341</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>7.353483746939732</v>
+        <v>30.28837908522384</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.308225382337201</v>
       </c>
       <c r="K11">
-        <v>12.24137790337494</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.31547255755946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.22515991737292</v>
+      </c>
+      <c r="M11">
+        <v>20.24403378520672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.52343510775399</v>
+        <v>28.39203036135896</v>
       </c>
       <c r="C12">
-        <v>23.87573744686234</v>
+        <v>23.71051668149014</v>
       </c>
       <c r="D12">
-        <v>2.979628564700771</v>
+        <v>3.095043634633101</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.41641228735798</v>
+        <v>50.41231375661245</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.003395181934904</v>
       </c>
       <c r="H12">
-        <v>30.53878490152238</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.374662596133742</v>
+        <v>30.60319292936002</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.329810772234906</v>
       </c>
       <c r="K12">
-        <v>12.42003098217036</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.59908851583996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.40339367659617</v>
+      </c>
+      <c r="M12">
+        <v>20.52689988244283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.43812134729096</v>
+        <v>28.30701502191441</v>
       </c>
       <c r="C13">
-        <v>23.80293747573996</v>
+        <v>23.63803908209553</v>
       </c>
       <c r="D13">
-        <v>2.979950024285078</v>
+        <v>3.095755492236941</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.28008422680125</v>
+        <v>50.27770074606055</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.00419444169641</v>
       </c>
       <c r="H13">
-        <v>30.46968581107786</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>7.370054202146389</v>
+        <v>30.53528778886027</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.325115179814919</v>
       </c>
       <c r="K13">
-        <v>12.3816472360597</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.53816432674383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.36510071793673</v>
+      </c>
+      <c r="M13">
+        <v>20.46613798968264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.15900713373757</v>
+        <v>28.02887216915342</v>
       </c>
       <c r="C14">
-        <v>23.56486289163678</v>
+        <v>23.40101316501449</v>
       </c>
       <c r="D14">
-        <v>2.981136316479921</v>
+        <v>3.098205069622708</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.8353659644936</v>
+        <v>49.83861268988401</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.006798915449628</v>
       </c>
       <c r="H14">
-        <v>30.24471648979512</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>7.355205039589409</v>
+        <v>30.31423248693421</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.309980280125507</v>
       </c>
       <c r="K14">
-        <v>12.25611775400113</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.33887731010035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.23986548217288</v>
+      </c>
+      <c r="M14">
+        <v>20.26737720045526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.9873513120325</v>
+        <v>27.85781004306964</v>
       </c>
       <c r="C15">
-        <v>23.4185214385336</v>
+        <v>23.25531214666675</v>
       </c>
       <c r="D15">
-        <v>2.981966578293908</v>
+        <v>3.099801680743572</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.56285750813706</v>
+        <v>49.56958184621064</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.008392779651786</v>
       </c>
       <c r="H15">
-        <v>30.10720029779477</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>7.346245894481708</v>
+        <v>30.17912948985997</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.3008450925743</v>
       </c>
       <c r="K15">
-        <v>12.17895304470312</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.21634115536795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.16287965229996</v>
+      </c>
+      <c r="M15">
+        <v>20.14516110639241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.99274956163348</v>
+        <v>26.86659599688574</v>
       </c>
       <c r="C16">
-        <v>22.57169459416578</v>
+        <v>22.41213154674707</v>
       </c>
       <c r="D16">
-        <v>2.988218869584115</v>
+        <v>3.110337498844908</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.99917630565436</v>
+        <v>48.02629197642733</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.017510334840942</v>
       </c>
       <c r="H16">
-        <v>29.3232649633975</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>7.296924327631475</v>
+        <v>29.40927017715544</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.250500162390644</v>
       </c>
       <c r="K16">
-        <v>11.79571585013256</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.50673625669821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.77534374650878</v>
+      </c>
+      <c r="M16">
+        <v>19.43735863008391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.37251475703009</v>
+        <v>26.24843180826216</v>
       </c>
       <c r="C17">
-        <v>22.04453723101545</v>
+        <v>21.88719514997</v>
       </c>
       <c r="D17">
-        <v>2.993291606575879</v>
+        <v>3.117948069017074</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.03767824613313</v>
+        <v>47.07773547413952</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.023095347149169</v>
       </c>
       <c r="H17">
-        <v>28.8457884415227</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>7.268395476848968</v>
+        <v>28.94065431419123</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.221331664718019</v>
       </c>
       <c r="K17">
-        <v>11.57553996043157</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.06456567628265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.55556646019631</v>
+      </c>
+      <c r="M17">
+        <v>18.99626849124201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.01193929537373</v>
+        <v>25.88904647474884</v>
       </c>
       <c r="C18">
-        <v>21.73839000206504</v>
+        <v>21.58232148721352</v>
       </c>
       <c r="D18">
-        <v>2.996628005228993</v>
+        <v>3.122713629586823</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.48369264011342</v>
+        <v>46.53135958535945</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.026306956071644</v>
       </c>
       <c r="H18">
-        <v>28.57234282663309</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>7.252593541866877</v>
+        <v>28.67238957337327</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.205157884953449</v>
       </c>
       <c r="K18">
-        <v>11.44863301546907</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.8076298902974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.42888081027714</v>
+      </c>
+      <c r="M18">
+        <v>18.73994593059621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.88918471619332</v>
+        <v>25.76669488368567</v>
       </c>
       <c r="C19">
-        <v>21.63421742190578</v>
+        <v>21.47857962112335</v>
       </c>
       <c r="D19">
-        <v>2.997826348426858</v>
+        <v>3.124390854156583</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.29594719702791</v>
+        <v>46.34621983657512</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.027394431732774</v>
       </c>
       <c r="H19">
-        <v>28.47995614930585</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.247344994235689</v>
+        <v>28.58177166933073</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.19978279795586</v>
       </c>
       <c r="K19">
-        <v>11.4056170303153</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.7201790072541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.38593843793605</v>
+      </c>
+      <c r="M19">
+        <v>18.65270135586129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.43893369054254</v>
+        <v>26.31463044985601</v>
       </c>
       <c r="C20">
-        <v>22.10095559225219</v>
+        <v>21.94337752830452</v>
       </c>
       <c r="D20">
-        <v>2.992707495644313</v>
+        <v>3.117097017742487</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.14012769490632</v>
+        <v>47.17879024098872</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.022500939942919</v>
       </c>
       <c r="H20">
-        <v>28.89649226801346</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7.271368974963933</v>
+        <v>28.99040619659203</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.224373670736124</v>
       </c>
       <c r="K20">
-        <v>11.5990053679002</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.11190368959335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.57899027405707</v>
+      </c>
+      <c r="M20">
+        <v>19.04349236248589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.2411327855602</v>
+        <v>28.11071279094607</v>
       </c>
       <c r="C21">
-        <v>23.63489745598865</v>
+        <v>23.47074012071218</v>
       </c>
       <c r="D21">
-        <v>2.980766045909287</v>
+        <v>3.097465308652032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.96601142376502</v>
+        <v>49.96759843479515</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.006034235677702</v>
       </c>
       <c r="H21">
-        <v>30.31073563027405</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>7.359537999518944</v>
+        <v>30.37909871873959</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.314397383327517</v>
       </c>
       <c r="K21">
-        <v>12.29304557336418</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.39750948748601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.27670716173716</v>
+      </c>
+      <c r="M21">
+        <v>20.32585529267609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.38772232753563</v>
+        <v>29.25325235954016</v>
       </c>
       <c r="C22">
-        <v>24.6140672425025</v>
+        <v>24.44553022877626</v>
       </c>
       <c r="D22">
-        <v>2.977499841851495</v>
+        <v>3.08884655952991</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.80775645978269</v>
+        <v>51.7864282845098</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.995213734902743</v>
       </c>
       <c r="H22">
-        <v>31.24750911152387</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.423189309881273</v>
+        <v>31.29988288868284</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.379216335985368</v>
       </c>
       <c r="K22">
-        <v>12.80926823807535</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.21656340697885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.79168805894539</v>
+      </c>
+      <c r="M22">
+        <v>21.14269130648812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.77847376742765</v>
+        <v>28.64617257823017</v>
       </c>
       <c r="C23">
-        <v>24.09345263364466</v>
+        <v>23.92726293490337</v>
       </c>
       <c r="D23">
-        <v>2.978784670458997</v>
+        <v>3.093020727895748</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.82504840976367</v>
+        <v>50.81583873872736</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.000996958085301</v>
       </c>
       <c r="H23">
-        <v>30.74627908795718</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>7.388633539651769</v>
+        <v>30.80712450188772</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.344041953873106</v>
       </c>
       <c r="K23">
-        <v>12.53481668762654</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.78124524023946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.51790557298681</v>
+      </c>
+      <c r="M23">
+        <v>20.70856733367263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.40891816202925</v>
+        <v>26.28471451578432</v>
       </c>
       <c r="C24">
-        <v>22.07545846633562</v>
+        <v>21.91798710007204</v>
       </c>
       <c r="D24">
-        <v>2.992970272427231</v>
+        <v>3.117480570702795</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.09381409275476</v>
+        <v>47.13310664504942</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.02276966868438</v>
       </c>
       <c r="H24">
-        <v>28.87356577868835</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>7.270022795186695</v>
+        <v>28.96790981056818</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.222996531218881</v>
       </c>
       <c r="K24">
-        <v>11.58839767396292</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.09051068662803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.56840140894657</v>
+      </c>
+      <c r="M24">
+        <v>19.02215098761467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.70520720102286</v>
+        <v>23.58972279975664</v>
       </c>
       <c r="C25">
-        <v>19.78512819943499</v>
+        <v>19.63692783728866</v>
       </c>
       <c r="D25">
-        <v>3.023961825270651</v>
+        <v>3.158415875654737</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.03218610442347</v>
+        <v>43.13020963326449</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.046247788516154</v>
       </c>
       <c r="H25">
-        <v>26.89862274109775</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.165011012785982</v>
+        <v>27.03232162269564</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.11521155006041</v>
       </c>
       <c r="K25">
-        <v>10.6573951509595</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.16608173826517</v>
+        <v>10.63888426027934</v>
+      </c>
+      <c r="M25">
+        <v>17.10207228033003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46537610292213</v>
+        <v>22.78357417581944</v>
       </c>
       <c r="C2">
-        <v>17.84700263795903</v>
+        <v>11.09459552506107</v>
       </c>
       <c r="D2">
-        <v>3.197914026549499</v>
+        <v>4.032230290681497</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.1487684325536</v>
+        <v>30.62917528140382</v>
       </c>
       <c r="G2">
-        <v>2.063756785323807</v>
+        <v>2.079219197924898</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.64306235668968</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.052595254214255</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.03492598311289</v>
       </c>
       <c r="L2">
-        <v>9.944713687528381</v>
+        <v>8.099688878209506</v>
       </c>
       <c r="M2">
-        <v>15.59211488984818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.7461401574702</v>
+      </c>
+      <c r="O2">
+        <v>23.92707676997648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.93282449999234</v>
+        <v>21.25113455867533</v>
       </c>
       <c r="C3">
-        <v>16.55978400211198</v>
+        <v>10.49774104245257</v>
       </c>
       <c r="D3">
-        <v>3.229279479719831</v>
+        <v>4.121023767068216</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.10763610724027</v>
+        <v>29.37773978940529</v>
       </c>
       <c r="G3">
-        <v>2.075855598786557</v>
+        <v>2.08854071504522</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.7230191910163</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.019345577811634</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.77452276563589</v>
       </c>
       <c r="L3">
-        <v>9.468833246968211</v>
+        <v>7.809239318082661</v>
       </c>
       <c r="M3">
-        <v>14.50485865191334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.99621554033072</v>
+      </c>
+      <c r="O3">
+        <v>23.15140333681397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9444162383204</v>
+        <v>20.30514237995244</v>
       </c>
       <c r="C4">
-        <v>15.73129961764707</v>
+        <v>10.11571694399912</v>
       </c>
       <c r="D4">
-        <v>3.250470445682205</v>
+        <v>4.175829190745013</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.8457608904756</v>
+        <v>28.6164199624385</v>
       </c>
       <c r="G4">
-        <v>2.083425920937597</v>
+        <v>2.094405502199741</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.16881380679727</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.003079297817007</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.95941143413657</v>
       </c>
       <c r="L4">
-        <v>9.174474319577691</v>
+        <v>7.631761770166066</v>
       </c>
       <c r="M4">
-        <v>13.8046098046345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.15310583510284</v>
+      </c>
+      <c r="O4">
+        <v>22.68849498626175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52948978482489</v>
+        <v>19.91018566906847</v>
       </c>
       <c r="C5">
-        <v>15.38388898681316</v>
+        <v>9.956162799717728</v>
       </c>
       <c r="D5">
-        <v>3.259548481693249</v>
+        <v>4.198261406036926</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.32974241884592</v>
+        <v>28.30826217913414</v>
       </c>
       <c r="G5">
-        <v>2.086550068050488</v>
+        <v>2.096832914341733</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.94571670716809</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.997440445874857</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.61675231964309</v>
       </c>
       <c r="L5">
-        <v>9.054084766962164</v>
+        <v>7.55973314240004</v>
       </c>
       <c r="M5">
-        <v>13.51088724511867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.21790102112582</v>
+      </c>
+      <c r="O5">
+        <v>22.50331781666862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.45985208983837</v>
+        <v>19.84403762120679</v>
       </c>
       <c r="C6">
-        <v>15.32560419616302</v>
+        <v>9.929436245915898</v>
       </c>
       <c r="D6">
-        <v>3.261081446674653</v>
+        <v>4.201992952418835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.24396273074348</v>
+        <v>28.25722859732155</v>
       </c>
       <c r="G6">
-        <v>2.087071295153785</v>
+        <v>2.097238300740224</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.90883947385174</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.996562380825281</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.5592165024364</v>
       </c>
       <c r="L6">
-        <v>9.034071545800556</v>
+        <v>7.54779311151302</v>
       </c>
       <c r="M6">
-        <v>13.46160543773048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.22871282999077</v>
+      </c>
+      <c r="O6">
+        <v>22.47278145952006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.93886983697748</v>
+        <v>20.29985391415894</v>
       </c>
       <c r="C7">
-        <v>15.72665424814537</v>
+        <v>10.11358077534658</v>
       </c>
       <c r="D7">
-        <v>3.250591136739435</v>
+        <v>4.176131286592308</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.83880837152822</v>
+        <v>28.6122551545253</v>
       </c>
       <c r="G7">
-        <v>2.083467891146085</v>
+        <v>2.094438084991259</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.16579383405319</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.002999311616915</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.95483287348821</v>
       </c>
       <c r="L7">
-        <v>9.172852305431892</v>
+        <v>7.630789062828073</v>
       </c>
       <c r="M7">
-        <v>13.80068262050391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.15397617152357</v>
+      </c>
+      <c r="O7">
+        <v>22.68598346620043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94665649789197</v>
+        <v>22.2411755434089</v>
       </c>
       <c r="C8">
-        <v>17.41095198913189</v>
+        <v>10.89204282820437</v>
       </c>
       <c r="D8">
-        <v>3.208299849092183</v>
+        <v>4.062803678087981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.44695816881416</v>
+        <v>30.19638599629914</v>
       </c>
       <c r="G8">
-        <v>2.067901321226182</v>
+        <v>2.082405123548379</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.32363389873878</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.040236563688665</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.60881366403978</v>
       </c>
       <c r="L8">
-        <v>9.78113648410482</v>
+        <v>7.999407984633381</v>
       </c>
       <c r="M8">
-        <v>15.22391440481899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.83168449451079</v>
+      </c>
+      <c r="O8">
+        <v>23.65691113905432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.51849316173257</v>
+        <v>25.96963459579791</v>
       </c>
       <c r="C9">
-        <v>20.42168496176292</v>
+        <v>12.29469603552089</v>
       </c>
       <c r="D9">
-        <v>3.142985945470375</v>
+        <v>3.841511698475299</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.48366242797757</v>
+        <v>33.34786682702986</v>
       </c>
       <c r="G9">
-        <v>2.038318466824084</v>
+        <v>2.05983534513351</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.67850586448492</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.148739612034966</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.53143197144859</v>
       </c>
       <c r="L9">
-        <v>10.95352670069091</v>
+        <v>8.726139472930582</v>
       </c>
       <c r="M9">
-        <v>17.76322812214371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.2253076552501</v>
+      </c>
+      <c r="O9">
+        <v>25.6630777704103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.93662235469045</v>
+        <v>28.48005038511477</v>
       </c>
       <c r="C10">
-        <v>22.47164032151799</v>
+        <v>13.25038771192003</v>
       </c>
       <c r="D10">
-        <v>3.109524032622755</v>
+        <v>3.677450403663165</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.13443041860977</v>
+        <v>35.68025206436864</v>
       </c>
       <c r="G10">
-        <v>2.016872782032224</v>
+        <v>2.043734160888209</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.4629199405624</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.253912188193618</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.49235846527403</v>
       </c>
       <c r="L10">
-        <v>11.80038582294959</v>
+        <v>9.259348976954307</v>
       </c>
       <c r="M10">
-        <v>19.48734170612156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.79430777195936</v>
+      </c>
+      <c r="O10">
+        <v>27.19594398137701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.99620115404354</v>
+        <v>29.57487792039464</v>
       </c>
       <c r="C11">
-        <v>23.37318153905675</v>
+        <v>13.66941718139276</v>
       </c>
       <c r="D11">
-        <v>3.098504761414046</v>
+        <v>3.601972021148646</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.78717067105809</v>
+        <v>36.74417408604063</v>
       </c>
       <c r="G11">
-        <v>2.007103792004459</v>
+        <v>2.036477314822104</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.28837908522384</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.308225382337201</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.3462183277051</v>
       </c>
       <c r="L11">
-        <v>12.22515991737292</v>
+        <v>9.501385587357532</v>
       </c>
       <c r="M11">
-        <v>20.24403378520672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.60119740773028</v>
+      </c>
+      <c r="O11">
+        <v>27.90602391992307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.39203036135896</v>
+        <v>29.98291386457633</v>
       </c>
       <c r="C12">
-        <v>23.71051668149014</v>
+        <v>13.82589600823008</v>
       </c>
       <c r="D12">
-        <v>3.095043634633101</v>
+        <v>3.573219179253023</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.41231375661245</v>
+        <v>37.14749976980687</v>
       </c>
       <c r="G12">
-        <v>2.003395181934904</v>
+        <v>2.0337356507636</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.60319292936002</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.329810772234906</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.66426715358736</v>
       </c>
       <c r="L12">
-        <v>12.40339367659617</v>
+        <v>9.592951142398375</v>
       </c>
       <c r="M12">
-        <v>20.52689988244283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.52848765086954</v>
+      </c>
+      <c r="O12">
+        <v>28.17679712079771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.30701502191441</v>
+        <v>29.89532339402224</v>
       </c>
       <c r="C13">
-        <v>23.63803908209553</v>
+        <v>13.79229210125594</v>
       </c>
       <c r="D13">
-        <v>3.095755492236941</v>
+        <v>3.579420062298079</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.27770074606055</v>
+        <v>37.06061549084712</v>
       </c>
       <c r="G13">
-        <v>2.00419444169641</v>
+        <v>2.034325893005171</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.53528778886027</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.325115179814919</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.59600149994957</v>
       </c>
       <c r="L13">
-        <v>12.36510071793673</v>
+        <v>9.573234835381998</v>
       </c>
       <c r="M13">
-        <v>20.46613798968264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.54412851128519</v>
+      </c>
+      <c r="O13">
+        <v>28.11839634648589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.02887216915342</v>
+        <v>29.60857715145023</v>
       </c>
       <c r="C14">
-        <v>23.40101316501449</v>
+        <v>13.68233443388885</v>
       </c>
       <c r="D14">
-        <v>3.098205069622708</v>
+        <v>3.599610233814322</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.83861268988401</v>
+        <v>36.7773466614705</v>
       </c>
       <c r="G14">
-        <v>2.006798915449628</v>
+        <v>2.03625165005735</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.31423248693421</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.309980280125507</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.37248918774757</v>
       </c>
       <c r="L14">
-        <v>12.23986548217288</v>
+        <v>9.508920532255599</v>
       </c>
       <c r="M14">
-        <v>20.26737720045526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.59520719861399</v>
+      </c>
+      <c r="O14">
+        <v>27.92826245532624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.85781004306964</v>
+        <v>29.43209098496574</v>
       </c>
       <c r="C15">
-        <v>23.25531214666675</v>
+        <v>13.61469800790352</v>
       </c>
       <c r="D15">
-        <v>3.099801680743572</v>
+        <v>3.61195349119203</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.56958184621064</v>
+        <v>36.60389589731046</v>
       </c>
       <c r="G15">
-        <v>2.008392779651786</v>
+        <v>2.037431951255504</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.17912948985997</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.3008450925743</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.23489887795683</v>
       </c>
       <c r="L15">
-        <v>12.16287965229996</v>
+        <v>9.469514525005016</v>
       </c>
       <c r="M15">
-        <v>20.14516110639241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.62654854136047</v>
+      </c>
+      <c r="O15">
+        <v>27.81204713820625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.86659599688574</v>
+        <v>28.40757075818032</v>
       </c>
       <c r="C16">
-        <v>22.41213154674707</v>
+        <v>13.22269173102387</v>
       </c>
       <c r="D16">
-        <v>3.110337498844908</v>
+        <v>3.682361999218507</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.02629197642733</v>
+        <v>35.61078093995867</v>
       </c>
       <c r="G16">
-        <v>2.017510334840942</v>
+        <v>2.044209493780694</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.40927017715544</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.250500162390644</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.43580521712746</v>
       </c>
       <c r="L16">
-        <v>11.77534374650878</v>
+        <v>9.24351929651538</v>
       </c>
       <c r="M16">
-        <v>19.43735863008391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.80698662490671</v>
+      </c>
+      <c r="O16">
+        <v>27.14979830624296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.24843180826216</v>
+        <v>27.76713463882478</v>
       </c>
       <c r="C17">
-        <v>21.88719514997</v>
+        <v>12.97822102838141</v>
       </c>
       <c r="D17">
-        <v>3.117948069017074</v>
+        <v>3.725305471943564</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.07773547413952</v>
+        <v>35.00227331356322</v>
       </c>
       <c r="G17">
-        <v>2.023095347149169</v>
+        <v>2.04838233676403</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.94065431419123</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.221331664718019</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.93594616156367</v>
       </c>
       <c r="L17">
-        <v>11.55556646019631</v>
+        <v>9.104730171937728</v>
       </c>
       <c r="M17">
-        <v>18.99626849124201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.9184287264999</v>
+      </c>
+      <c r="O17">
+        <v>26.74681795628744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.88904647474884</v>
+        <v>27.3943169863932</v>
       </c>
       <c r="C18">
-        <v>21.58232148721352</v>
+        <v>12.83612358835485</v>
       </c>
       <c r="D18">
-        <v>3.122713629586823</v>
+        <v>3.749929053138189</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.53135958535945</v>
+        <v>34.65254332738805</v>
       </c>
       <c r="G18">
-        <v>2.026306956071644</v>
+        <v>2.050789038229672</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.67238957337327</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.205157884953449</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.64483417927735</v>
       </c>
       <c r="L18">
-        <v>11.42888081027714</v>
+        <v>9.024852937080324</v>
       </c>
       <c r="M18">
-        <v>18.73994593059621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.98280545540566</v>
+      </c>
+      <c r="O18">
+        <v>26.51623096650371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.76669488368567</v>
+        <v>27.26731545680061</v>
       </c>
       <c r="C19">
-        <v>21.47857962112335</v>
+        <v>12.78775529264633</v>
       </c>
       <c r="D19">
-        <v>3.124390854156583</v>
+        <v>3.758254462106239</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.34621983657512</v>
+        <v>34.53417730378885</v>
       </c>
       <c r="G19">
-        <v>2.027394431732774</v>
+        <v>2.051605135266044</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.58177166933073</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.19978279795586</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.54564348343272</v>
       </c>
       <c r="L19">
-        <v>11.38593843793605</v>
+        <v>8.997800054385046</v>
       </c>
       <c r="M19">
-        <v>18.65270135586129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.0046504174343</v>
+      </c>
+      <c r="O19">
+        <v>26.43836311854056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.31463044985601</v>
+        <v>27.83576971988013</v>
       </c>
       <c r="C20">
-        <v>21.94337752830452</v>
+        <v>13.00439858397493</v>
       </c>
       <c r="D20">
-        <v>3.117097017742487</v>
+        <v>3.720742307298873</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>47.17879024098872</v>
+        <v>35.06702239014835</v>
       </c>
       <c r="G20">
-        <v>2.022500939942919</v>
+        <v>2.04793747150438</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.99040619659203</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.224373670736124</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.98952885617805</v>
       </c>
       <c r="L20">
-        <v>11.57899027405707</v>
+        <v>9.119509770355817</v>
       </c>
       <c r="M20">
-        <v>19.04349236248589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.90653680905566</v>
+      </c>
+      <c r="O20">
+        <v>26.78959188408334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11071279094607</v>
+        <v>29.69297728471655</v>
       </c>
       <c r="C21">
-        <v>23.47074012071218</v>
+        <v>13.71469075384815</v>
       </c>
       <c r="D21">
-        <v>3.097465308652032</v>
+        <v>3.593684948379595</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.96759843479515</v>
+        <v>36.86053701154037</v>
       </c>
       <c r="G21">
-        <v>2.006034235677702</v>
+        <v>2.035685865205103</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.37909871873959</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.314397383327517</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.4382820328965</v>
       </c>
       <c r="L21">
-        <v>12.27670716173716</v>
+        <v>9.527813628710339</v>
       </c>
       <c r="M21">
-        <v>20.32585529267609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.5801928655037</v>
+      </c>
+      <c r="O21">
+        <v>27.98405772471623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.25325235954016</v>
+        <v>30.86871196385702</v>
       </c>
       <c r="C22">
-        <v>24.44553022877626</v>
+        <v>14.16613432362381</v>
       </c>
       <c r="D22">
-        <v>3.08884655952991</v>
+        <v>3.509622683439796</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.7864282845098</v>
+        <v>38.03534578513619</v>
       </c>
       <c r="G22">
-        <v>1.995213734902743</v>
+        <v>2.027713859594956</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.29988288868284</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.379216335985368</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.35440278651352</v>
       </c>
       <c r="L22">
-        <v>12.79168805894539</v>
+        <v>9.794153684476834</v>
       </c>
       <c r="M22">
-        <v>21.14269130648812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.36933975840119</v>
+      </c>
+      <c r="O22">
+        <v>28.77573384155006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.64617257823017</v>
+        <v>30.24459810263522</v>
       </c>
       <c r="C23">
-        <v>23.92726293490337</v>
+        <v>13.92633412586208</v>
       </c>
       <c r="D23">
-        <v>3.093020727895748</v>
+        <v>3.554599740010104</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.81583873872736</v>
+        <v>37.40805727642259</v>
       </c>
       <c r="G23">
-        <v>2.000996958085301</v>
+        <v>2.031966677559295</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.80712450188772</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.344041953873106</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.86819176368889</v>
       </c>
       <c r="L23">
-        <v>12.51790557298681</v>
+        <v>9.652049822198929</v>
       </c>
       <c r="M23">
-        <v>20.70856733367263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.48165440680138</v>
+      </c>
+      <c r="O23">
+        <v>28.35216464789412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.28471451578432</v>
+        <v>27.80475421463611</v>
       </c>
       <c r="C24">
-        <v>21.91798710007204</v>
+        <v>12.99256853714848</v>
       </c>
       <c r="D24">
-        <v>3.117480570702795</v>
+        <v>3.722805513462783</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>47.13310664504942</v>
+        <v>35.03774899333336</v>
       </c>
       <c r="G24">
-        <v>2.02276966868438</v>
+        <v>2.048138570921018</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.96790981056818</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.222996531218881</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.96531577273364</v>
       </c>
       <c r="L24">
-        <v>11.56840140894657</v>
+        <v>9.112828179066657</v>
       </c>
       <c r="M24">
-        <v>19.02215098761467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.91191218746193</v>
+      </c>
+      <c r="O24">
+        <v>26.77025039338274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.58972279975664</v>
+        <v>25.00193399736574</v>
       </c>
       <c r="C25">
-        <v>19.63692783728866</v>
+        <v>11.92849965079738</v>
       </c>
       <c r="D25">
-        <v>3.158415875654737</v>
+        <v>3.901475053172274</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.13020963326449</v>
+        <v>32.49180252176095</v>
       </c>
       <c r="G25">
-        <v>2.046247788516154</v>
+        <v>2.065845284518758</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.03232162269564</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.11521155006041</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.77421717936902</v>
       </c>
       <c r="L25">
-        <v>10.63888426027934</v>
+        <v>8.52949002166225</v>
       </c>
       <c r="M25">
-        <v>17.10207228033003</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.38672762339068</v>
+      </c>
+      <c r="O25">
+        <v>25.10986212560326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.78357417581944</v>
+        <v>13.18172711658265</v>
       </c>
       <c r="C2">
-        <v>11.09459552506107</v>
+        <v>7.891891006161224</v>
       </c>
       <c r="D2">
-        <v>4.032230290681497</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.008055221622686</v>
       </c>
       <c r="F2">
-        <v>30.62917528140382</v>
+        <v>17.49720683937224</v>
       </c>
       <c r="G2">
-        <v>2.079219197924898</v>
+        <v>21.65276765311684</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.674144439691172</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>12.58921113515195</v>
       </c>
       <c r="K2">
-        <v>18.03492598311289</v>
-      </c>
-      <c r="L2">
-        <v>8.099688878209506</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>11.95887924984707</v>
       </c>
       <c r="N2">
-        <v>12.7461401574702</v>
+        <v>11.78675524016793</v>
       </c>
       <c r="O2">
-        <v>23.92707676997648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.25113455867533</v>
+        <v>12.32939060403548</v>
       </c>
       <c r="C3">
-        <v>10.49774104245257</v>
+        <v>7.407690495182291</v>
       </c>
       <c r="D3">
-        <v>4.121023767068216</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.837804147340844</v>
       </c>
       <c r="F3">
-        <v>29.37773978940529</v>
+        <v>17.22576575799271</v>
       </c>
       <c r="G3">
-        <v>2.08854071504522</v>
+        <v>21.34579300911091</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.743448715792471</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>12.75943031390001</v>
       </c>
       <c r="K3">
-        <v>16.77452276563589</v>
-      </c>
-      <c r="L3">
-        <v>7.809239318082661</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>11.24870070696952</v>
       </c>
       <c r="N3">
-        <v>12.99621554033072</v>
+        <v>11.97598219228281</v>
       </c>
       <c r="O3">
-        <v>23.15140333681397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.30514237995244</v>
+        <v>11.7756714947821</v>
       </c>
       <c r="C4">
-        <v>10.11571694399912</v>
+        <v>7.094383502821008</v>
       </c>
       <c r="D4">
-        <v>4.175829190745013</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.729636460213775</v>
       </c>
       <c r="F4">
-        <v>28.6164199624385</v>
+        <v>17.07582537683015</v>
       </c>
       <c r="G4">
-        <v>2.094405502199741</v>
+        <v>21.18564251357308</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.792177732656194</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>12.87444376119788</v>
       </c>
       <c r="K4">
-        <v>15.95941143413657</v>
-      </c>
-      <c r="L4">
-        <v>7.631761770166066</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>10.78924340208192</v>
       </c>
       <c r="N4">
-        <v>13.15310583510284</v>
+        <v>12.09507146114728</v>
       </c>
       <c r="O4">
-        <v>22.68849498626175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.91018566906847</v>
+        <v>11.54236888404403</v>
       </c>
       <c r="C5">
-        <v>9.956162799717728</v>
+        <v>6.96269299653969</v>
       </c>
       <c r="D5">
-        <v>4.198261406036926</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.684682932139903</v>
       </c>
       <c r="F5">
-        <v>28.30826217913414</v>
+        <v>17.01888312959917</v>
       </c>
       <c r="G5">
-        <v>2.096832914341733</v>
+        <v>21.12733550545178</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.813527798609941</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>12.92383672908112</v>
       </c>
       <c r="K5">
-        <v>15.61675231964309</v>
-      </c>
-      <c r="L5">
-        <v>7.55973314240004</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>10.59615864657792</v>
       </c>
       <c r="N5">
-        <v>13.21790102112582</v>
+        <v>12.14434702247662</v>
       </c>
       <c r="O5">
-        <v>22.50331781666862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.84403762120679</v>
+        <v>11.503166263241</v>
       </c>
       <c r="C6">
-        <v>9.929436245915898</v>
+        <v>6.940583816240473</v>
       </c>
       <c r="D6">
-        <v>4.201992952418835</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.677166857974172</v>
       </c>
       <c r="F6">
-        <v>28.25722859732155</v>
+        <v>17.00967746980122</v>
       </c>
       <c r="G6">
-        <v>2.097238300740224</v>
+        <v>21.11806819945226</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.817161397471567</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>12.9321876081276</v>
       </c>
       <c r="K6">
-        <v>15.5592165024364</v>
-      </c>
-      <c r="L6">
-        <v>7.54779311151302</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>10.56374487472447</v>
       </c>
       <c r="N6">
-        <v>13.22871282999077</v>
+        <v>12.15257468197371</v>
       </c>
       <c r="O6">
-        <v>22.47278145952006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.29985391415894</v>
+        <v>11.77255611885789</v>
       </c>
       <c r="C7">
-        <v>10.11358077534658</v>
+        <v>7.092623717997125</v>
       </c>
       <c r="D7">
-        <v>4.176131286592308</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.729033686298418</v>
       </c>
       <c r="F7">
-        <v>28.6122551545253</v>
+        <v>17.07504066464171</v>
       </c>
       <c r="G7">
-        <v>2.094438084991259</v>
+        <v>21.18482824900655</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.792459701394469</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>12.87509981935834</v>
       </c>
       <c r="K7">
-        <v>15.95483287348821</v>
-      </c>
-      <c r="L7">
-        <v>7.630789062828073</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>10.78666303429847</v>
       </c>
       <c r="N7">
-        <v>13.15397617152357</v>
+        <v>12.09573296875575</v>
       </c>
       <c r="O7">
-        <v>22.68598346620043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.2411755434089</v>
+        <v>12.89413427342008</v>
       </c>
       <c r="C8">
-        <v>10.89204282820437</v>
+        <v>7.72826377921321</v>
       </c>
       <c r="D8">
-        <v>4.062803678087981</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.950128804009493</v>
       </c>
       <c r="F8">
-        <v>30.19638599629914</v>
+        <v>17.40011994692994</v>
       </c>
       <c r="G8">
-        <v>2.082405123548379</v>
+        <v>21.540950820939</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.696721556747789</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>12.64565162256196</v>
       </c>
       <c r="K8">
-        <v>17.60881366403978</v>
-      </c>
-      <c r="L8">
-        <v>7.999407984633381</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>11.71888281656977</v>
       </c>
       <c r="N8">
-        <v>12.83168449451079</v>
+        <v>11.85140775700166</v>
       </c>
       <c r="O8">
-        <v>23.65691113905432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.96963459579791</v>
+        <v>14.85361216799338</v>
       </c>
       <c r="C9">
-        <v>12.29469603552089</v>
+        <v>8.847753279099525</v>
       </c>
       <c r="D9">
-        <v>3.841511698475299</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.353370414908135</v>
       </c>
       <c r="F9">
-        <v>33.34786682702986</v>
+        <v>18.17156306897667</v>
       </c>
       <c r="G9">
-        <v>2.05983534513351</v>
+        <v>22.46995170128298</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.560830911894588</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>12.28462590856871</v>
       </c>
       <c r="K9">
-        <v>20.53143197144859</v>
-      </c>
-      <c r="L9">
-        <v>8.726139472930582</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>13.36050091019269</v>
       </c>
       <c r="N9">
-        <v>12.2253076552501</v>
+        <v>11.39458224284091</v>
       </c>
       <c r="O9">
-        <v>25.6630777704103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.48005038511477</v>
+        <v>16.14889098240468</v>
       </c>
       <c r="C10">
-        <v>13.25038771192003</v>
+        <v>9.593319007234838</v>
       </c>
       <c r="D10">
-        <v>3.677450403663165</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.629429230232862</v>
       </c>
       <c r="F10">
-        <v>35.68025206436864</v>
+        <v>18.82074085158947</v>
       </c>
       <c r="G10">
-        <v>2.043734160888209</v>
+        <v>23.29874740834487</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.496725811395837</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>12.08199389576037</v>
       </c>
       <c r="K10">
-        <v>22.49235846527403</v>
-      </c>
-      <c r="L10">
-        <v>9.259348976954307</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>14.45273385641226</v>
       </c>
       <c r="N10">
-        <v>11.79430777195936</v>
+        <v>11.07147221806543</v>
       </c>
       <c r="O10">
-        <v>27.19594398137701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.57487792039464</v>
+        <v>16.70729671729045</v>
       </c>
       <c r="C11">
-        <v>13.66941718139276</v>
+        <v>9.916011364241447</v>
       </c>
       <c r="D11">
-        <v>3.601972021148646</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>5.750342529499335</v>
       </c>
       <c r="F11">
-        <v>36.74417408604063</v>
+        <v>19.13387689653512</v>
       </c>
       <c r="G11">
-        <v>2.036477314822104</v>
+        <v>23.70815009623889</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.476272969901407</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>12.00542889661735</v>
       </c>
       <c r="K11">
-        <v>23.3462183277051</v>
-      </c>
-      <c r="L11">
-        <v>9.501385587357532</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>14.92503876297047</v>
       </c>
       <c r="N11">
-        <v>11.60119740773028</v>
+        <v>10.92695615913219</v>
       </c>
       <c r="O11">
-        <v>27.90602391992307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.98291386457633</v>
+        <v>16.91436175920113</v>
       </c>
       <c r="C12">
-        <v>13.82589600823008</v>
+        <v>10.03586126830757</v>
       </c>
       <c r="D12">
-        <v>3.573219179253023</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>5.795438662258028</v>
       </c>
       <c r="F12">
-        <v>37.14749976980687</v>
+        <v>19.25499624728052</v>
       </c>
       <c r="G12">
-        <v>2.0337356507636</v>
+        <v>23.86785100929924</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.469863042700537</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>11.97886277061236</v>
       </c>
       <c r="K12">
-        <v>23.66426715358736</v>
-      </c>
-      <c r="L12">
-        <v>9.592951142398375</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>15.10037696743404</v>
       </c>
       <c r="N12">
-        <v>11.52848765086954</v>
+        <v>10.87256625843727</v>
       </c>
       <c r="O12">
-        <v>28.17679712079771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.89532339402224</v>
+        <v>16.86996120334215</v>
       </c>
       <c r="C13">
-        <v>13.79229210125594</v>
+        <v>10.01015343156732</v>
       </c>
       <c r="D13">
-        <v>3.579420062298079</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>5.785757425397897</v>
       </c>
       <c r="F13">
-        <v>37.06061549084712</v>
+        <v>19.22879837840359</v>
       </c>
       <c r="G13">
-        <v>2.034325893005171</v>
+        <v>23.83324888691581</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.471182804103789</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>11.98447328385105</v>
       </c>
       <c r="K13">
-        <v>23.59600149994957</v>
-      </c>
-      <c r="L13">
-        <v>9.573234835381998</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>15.06277065888508</v>
       </c>
       <c r="N13">
-        <v>11.54412851128519</v>
+        <v>10.88426551067226</v>
       </c>
       <c r="O13">
-        <v>28.11839634648589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.60857715145023</v>
+        <v>16.72441983987581</v>
       </c>
       <c r="C14">
-        <v>13.68233443388885</v>
+        <v>9.925918381639361</v>
       </c>
       <c r="D14">
-        <v>3.599610233814322</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>5.754066569656049</v>
       </c>
       <c r="F14">
-        <v>36.7773466614705</v>
+        <v>19.14379066030967</v>
       </c>
       <c r="G14">
-        <v>2.03625165005735</v>
+        <v>23.72119520214791</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.475718378272559</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>12.00319355414796</v>
       </c>
       <c r="K14">
-        <v>23.37248918774757</v>
-      </c>
-      <c r="L14">
-        <v>9.508920532255599</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>14.93953423265645</v>
       </c>
       <c r="N14">
-        <v>11.59520719861399</v>
+        <v>10.92247486703762</v>
       </c>
       <c r="O14">
-        <v>27.92826245532624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.43209098496574</v>
+        <v>16.63470097859578</v>
       </c>
       <c r="C15">
-        <v>13.61469800790352</v>
+        <v>9.874017080364228</v>
       </c>
       <c r="D15">
-        <v>3.61195349119203</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>5.734564463278725</v>
       </c>
       <c r="F15">
-        <v>36.60389589731046</v>
+        <v>19.09205124989402</v>
       </c>
       <c r="G15">
-        <v>2.037431951255504</v>
+        <v>23.65316720146777</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.47867293076003</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>12.01498197330006</v>
       </c>
       <c r="K15">
-        <v>23.23489887795683</v>
-      </c>
-      <c r="L15">
-        <v>9.469514525005016</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>14.86359144762362</v>
       </c>
       <c r="N15">
-        <v>11.62654854136047</v>
+        <v>10.94592225551332</v>
       </c>
       <c r="O15">
-        <v>27.81204713820625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.40757075818032</v>
+        <v>16.11178106926228</v>
       </c>
       <c r="C16">
-        <v>13.22269173102387</v>
+        <v>9.571900652811573</v>
       </c>
       <c r="D16">
-        <v>3.682361999218507</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.621431566268659</v>
       </c>
       <c r="F16">
-        <v>35.61078093995867</v>
+        <v>18.80063359682812</v>
       </c>
       <c r="G16">
-        <v>2.044209493780694</v>
+        <v>23.27264506456777</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.498244703762566</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>12.08732710001199</v>
       </c>
       <c r="K16">
-        <v>22.43580521712746</v>
-      </c>
-      <c r="L16">
-        <v>9.24351929651538</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>14.42137485377112</v>
       </c>
       <c r="N16">
-        <v>11.80698662490671</v>
+        <v>11.08096467893768</v>
       </c>
       <c r="O16">
-        <v>27.14979830624296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.76713463882478</v>
+        <v>15.783120463705</v>
       </c>
       <c r="C17">
-        <v>12.97822102838141</v>
+        <v>9.382357920996707</v>
       </c>
       <c r="D17">
-        <v>3.725305471943564</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.550817591715954</v>
       </c>
       <c r="F17">
-        <v>35.00227331356322</v>
+        <v>18.62640952012999</v>
       </c>
       <c r="G17">
-        <v>2.04838233676403</v>
+        <v>23.04751549128893</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.512539819642285</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>12.13583354992389</v>
       </c>
       <c r="K17">
-        <v>21.93594616156367</v>
-      </c>
-      <c r="L17">
-        <v>9.104730171937728</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>14.14381033938029</v>
       </c>
       <c r="N17">
-        <v>11.9184287264999</v>
+        <v>11.16442719394319</v>
       </c>
       <c r="O17">
-        <v>26.74681795628744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.3943169863932</v>
+        <v>15.59117969282319</v>
       </c>
       <c r="C18">
-        <v>12.83612358835485</v>
+        <v>9.27178623893057</v>
       </c>
       <c r="D18">
-        <v>3.749929053138189</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>5.509763982612625</v>
       </c>
       <c r="F18">
-        <v>34.65254332738805</v>
+        <v>18.52787962209174</v>
       </c>
       <c r="G18">
-        <v>2.050789038229672</v>
+        <v>22.92107523789931</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.521576561483842</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>12.1651911764529</v>
       </c>
       <c r="K18">
-        <v>21.64483417927735</v>
-      </c>
-      <c r="L18">
-        <v>9.024852937080324</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>13.98184963084715</v>
       </c>
       <c r="N18">
-        <v>11.98280545540566</v>
+        <v>11.21266617768881</v>
       </c>
       <c r="O18">
-        <v>26.51623096650371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.26731545680061</v>
+        <v>15.52569189534373</v>
       </c>
       <c r="C19">
-        <v>12.78775529264633</v>
+        <v>9.234081466612922</v>
       </c>
       <c r="D19">
-        <v>3.758254462106239</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>5.495789314526903</v>
       </c>
       <c r="F19">
-        <v>34.53417730378885</v>
+        <v>18.4948080530232</v>
       </c>
       <c r="G19">
-        <v>2.051605135266044</v>
+        <v>22.8787875877694</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.524773678701669</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>12.1753762075306</v>
       </c>
       <c r="K19">
-        <v>21.54564348343272</v>
-      </c>
-      <c r="L19">
-        <v>8.997800054385046</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>13.92661482356792</v>
       </c>
       <c r="N19">
-        <v>12.0046504174343</v>
+        <v>11.22903977199884</v>
       </c>
       <c r="O19">
-        <v>26.43836311854056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.83576971988013</v>
+        <v>15.81840719811295</v>
       </c>
       <c r="C20">
-        <v>13.00439858397493</v>
+        <v>9.402695521339673</v>
       </c>
       <c r="D20">
-        <v>3.720742307298873</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.558380088751698</v>
       </c>
       <c r="F20">
-        <v>35.06702239014835</v>
+        <v>18.64478231948637</v>
       </c>
       <c r="G20">
-        <v>2.04793747150438</v>
+        <v>23.07116527673877</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.510933185552144</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>12.13051777365875</v>
       </c>
       <c r="K20">
-        <v>21.98952885617805</v>
-      </c>
-      <c r="L20">
-        <v>9.119509770355817</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>14.17359682601209</v>
       </c>
       <c r="N20">
-        <v>11.90653680905566</v>
+        <v>11.1555184357769</v>
       </c>
       <c r="O20">
-        <v>26.78959188408334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.69297728471655</v>
+        <v>16.76728769545804</v>
       </c>
       <c r="C21">
-        <v>13.71469075384815</v>
+        <v>9.95072375480275</v>
       </c>
       <c r="D21">
-        <v>3.593684948379595</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>5.763393842397596</v>
       </c>
       <c r="F21">
-        <v>36.86053701154037</v>
+        <v>19.16869070332951</v>
       </c>
       <c r="G21">
-        <v>2.035685865205103</v>
+        <v>23.75398135574615</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.474349260215282</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>11.99762757164815</v>
       </c>
       <c r="K21">
-        <v>23.4382820328965</v>
-      </c>
-      <c r="L21">
-        <v>9.527813628710339</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>14.97582693879408</v>
       </c>
       <c r="N21">
-        <v>11.5801928655037</v>
+        <v>10.91124291658799</v>
       </c>
       <c r="O21">
-        <v>27.98405772471623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.86871196385702</v>
+        <v>17.36186258663359</v>
       </c>
       <c r="C22">
-        <v>14.16613432362381</v>
+        <v>10.29522631749663</v>
       </c>
       <c r="D22">
-        <v>3.509622683439796</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>5.893346749603432</v>
       </c>
       <c r="F22">
-        <v>38.03534578513619</v>
+        <v>19.52589663982274</v>
       </c>
       <c r="G22">
-        <v>2.027713859594956</v>
+        <v>24.22745023767153</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.458262231549615</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>11.92501708782645</v>
       </c>
       <c r="K22">
-        <v>24.35440278651352</v>
-      </c>
-      <c r="L22">
-        <v>9.794153684476834</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>15.47966426881671</v>
       </c>
       <c r="N22">
-        <v>11.36933975840119</v>
+        <v>10.75353885673998</v>
       </c>
       <c r="O22">
-        <v>28.77573384155006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.24459810263522</v>
+        <v>17.04685233268172</v>
       </c>
       <c r="C23">
-        <v>13.92633412586208</v>
+        <v>10.11260108771168</v>
       </c>
       <c r="D23">
-        <v>3.554599740010104</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>5.824363483084808</v>
       </c>
       <c r="F23">
-        <v>37.40805727642259</v>
+        <v>19.33390282412253</v>
       </c>
       <c r="G23">
-        <v>2.031966677559295</v>
+        <v>23.9722614282718</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.466104255477331</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>11.96240456909544</v>
       </c>
       <c r="K23">
-        <v>23.86819176368889</v>
-      </c>
-      <c r="L23">
-        <v>9.652049822198929</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>15.21262203653625</v>
       </c>
       <c r="N23">
-        <v>11.48165440680138</v>
+        <v>10.83753729905198</v>
       </c>
       <c r="O23">
-        <v>28.35216464789412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.80475421463611</v>
+        <v>15.80246337992016</v>
       </c>
       <c r="C24">
-        <v>12.99256853714848</v>
+        <v>9.393505880696582</v>
       </c>
       <c r="D24">
-        <v>3.722805513462783</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.554962504794777</v>
       </c>
       <c r="F24">
-        <v>35.03774899333336</v>
+        <v>18.63647088625533</v>
       </c>
       <c r="G24">
-        <v>2.048138570921018</v>
+        <v>23.06046389751684</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.511657002268654</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>12.13291646911084</v>
       </c>
       <c r="K24">
-        <v>21.96531577273364</v>
-      </c>
-      <c r="L24">
-        <v>9.112828179066657</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>14.16013778597106</v>
       </c>
       <c r="N24">
-        <v>11.91191218746193</v>
+        <v>11.15954528874232</v>
       </c>
       <c r="O24">
-        <v>26.77025039338274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.00193399736574</v>
+        <v>14.34902562392305</v>
       </c>
       <c r="C25">
-        <v>11.92849965079738</v>
+        <v>8.558467989848562</v>
       </c>
       <c r="D25">
-        <v>3.901475053172274</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.247721613788802</v>
       </c>
       <c r="F25">
-        <v>32.49180252176095</v>
+        <v>17.94839927399708</v>
       </c>
       <c r="G25">
-        <v>2.065845284518758</v>
+        <v>22.19323713425598</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.591628275600449</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>12.37194446424072</v>
       </c>
       <c r="K25">
-        <v>19.77421717936902</v>
-      </c>
-      <c r="L25">
-        <v>8.52949002166225</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>12.9364180270822</v>
       </c>
       <c r="N25">
-        <v>12.38672762339068</v>
+        <v>11.51588729135163</v>
       </c>
       <c r="O25">
-        <v>25.10986212560326</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.18172711658265</v>
+        <v>9.174161214183117</v>
       </c>
       <c r="C2">
-        <v>7.891891006161224</v>
+        <v>4.857791381020579</v>
       </c>
       <c r="D2">
-        <v>5.008055221622686</v>
+        <v>4.958651792367739</v>
       </c>
       <c r="F2">
-        <v>17.49720683937224</v>
+        <v>23.82134475437357</v>
       </c>
       <c r="G2">
-        <v>21.65276765311684</v>
+        <v>27.95420364659922</v>
       </c>
       <c r="H2">
-        <v>8.674144439691172</v>
+        <v>14.12660604355934</v>
       </c>
       <c r="I2">
-        <v>12.58921113515195</v>
+        <v>20.03164163482821</v>
       </c>
       <c r="K2">
-        <v>11.95887924984707</v>
+        <v>9.08004166712103</v>
       </c>
       <c r="N2">
-        <v>11.78675524016793</v>
+        <v>17.89298858080832</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32939060403548</v>
+        <v>8.863691952697499</v>
       </c>
       <c r="C3">
-        <v>7.407690495182291</v>
+        <v>4.607323665256415</v>
       </c>
       <c r="D3">
-        <v>4.837804147340844</v>
+        <v>4.895570032497602</v>
       </c>
       <c r="F3">
-        <v>17.22576575799271</v>
+        <v>23.86547223680638</v>
       </c>
       <c r="G3">
-        <v>21.34579300911091</v>
+        <v>28.02663593442987</v>
       </c>
       <c r="H3">
-        <v>8.743448715792471</v>
+        <v>14.17754213885025</v>
       </c>
       <c r="I3">
-        <v>12.75943031390001</v>
+        <v>20.12509569139831</v>
       </c>
       <c r="K3">
-        <v>11.24870070696952</v>
+        <v>8.869300602230227</v>
       </c>
       <c r="N3">
-        <v>11.97598219228281</v>
+        <v>17.95124945711763</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.7756714947821</v>
+        <v>8.668911505669886</v>
       </c>
       <c r="C4">
-        <v>7.094383502821008</v>
+        <v>4.445381584742468</v>
       </c>
       <c r="D4">
-        <v>4.729636460213775</v>
+        <v>4.855908001366819</v>
       </c>
       <c r="F4">
-        <v>17.07582537683015</v>
+        <v>23.89948960618854</v>
       </c>
       <c r="G4">
-        <v>21.18564251357308</v>
+        <v>28.08126294296581</v>
       </c>
       <c r="H4">
-        <v>8.792177732656194</v>
+        <v>14.21126249055108</v>
       </c>
       <c r="I4">
-        <v>12.87444376119788</v>
+        <v>20.1865487851903</v>
       </c>
       <c r="K4">
-        <v>10.78924340208192</v>
+        <v>8.73889279088246</v>
       </c>
       <c r="N4">
-        <v>12.09507146114728</v>
+        <v>17.98876526023162</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.54236888404403</v>
+        <v>8.588620535939423</v>
       </c>
       <c r="C5">
-        <v>6.96269299653969</v>
+        <v>4.377373768105642</v>
       </c>
       <c r="D5">
-        <v>4.684682932139903</v>
+        <v>4.839520727984005</v>
       </c>
       <c r="F5">
-        <v>17.01888312959917</v>
+        <v>23.91508791782974</v>
       </c>
       <c r="G5">
-        <v>21.12733550545178</v>
+        <v>28.10606428699805</v>
       </c>
       <c r="H5">
-        <v>8.813527798609941</v>
+        <v>14.22561844392268</v>
       </c>
       <c r="I5">
-        <v>12.92383672908112</v>
+        <v>20.21261453066143</v>
       </c>
       <c r="K5">
-        <v>10.59615864657792</v>
+        <v>8.685574494422752</v>
       </c>
       <c r="N5">
-        <v>12.14434702247662</v>
+        <v>18.00449285913779</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.503166263241</v>
+        <v>8.575236874607423</v>
       </c>
       <c r="C6">
-        <v>6.940583816240473</v>
+        <v>4.36596058872292</v>
       </c>
       <c r="D6">
-        <v>4.677166857974172</v>
+        <v>4.836786333589527</v>
       </c>
       <c r="F6">
-        <v>17.00967746980122</v>
+        <v>23.91778269666673</v>
       </c>
       <c r="G6">
-        <v>21.11806819945226</v>
+        <v>28.11033556917344</v>
       </c>
       <c r="H6">
-        <v>8.817161397471567</v>
+        <v>14.22803935364686</v>
       </c>
       <c r="I6">
-        <v>12.9321876081276</v>
+        <v>20.21700449832267</v>
       </c>
       <c r="K6">
-        <v>10.56374487472447</v>
+        <v>8.676712747335484</v>
       </c>
       <c r="N6">
-        <v>12.15257468197371</v>
+        <v>18.00713100180323</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.77255611885789</v>
+        <v>8.667832207423439</v>
       </c>
       <c r="C7">
-        <v>7.092623717997125</v>
+        <v>4.444472514735978</v>
       </c>
       <c r="D7">
-        <v>4.729033686298418</v>
+        <v>4.855687894416655</v>
       </c>
       <c r="F7">
-        <v>17.07504066464171</v>
+        <v>23.89969294862859</v>
       </c>
       <c r="G7">
-        <v>21.18482824900655</v>
+        <v>28.0815871543388</v>
       </c>
       <c r="H7">
-        <v>8.792459701394469</v>
+        <v>14.21145361168473</v>
       </c>
       <c r="I7">
-        <v>12.87509981935834</v>
+        <v>20.18689617545991</v>
       </c>
       <c r="K7">
-        <v>10.78666303429847</v>
+        <v>8.738174328768165</v>
       </c>
       <c r="N7">
-        <v>12.09573296875575</v>
+        <v>17.98897558657664</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.89413427342008</v>
+        <v>9.068046054378023</v>
       </c>
       <c r="C8">
-        <v>7.72826377921321</v>
+        <v>4.773141445514077</v>
       </c>
       <c r="D8">
-        <v>4.950128804009493</v>
+        <v>4.937099504316357</v>
       </c>
       <c r="F8">
-        <v>17.40011994692994</v>
+        <v>23.83512034917584</v>
       </c>
       <c r="G8">
-        <v>21.540950820939</v>
+        <v>27.97706369296795</v>
       </c>
       <c r="H8">
-        <v>8.696721556747789</v>
+        <v>14.14366110511468</v>
       </c>
       <c r="I8">
-        <v>12.64565162256196</v>
+        <v>20.06301897482841</v>
       </c>
       <c r="K8">
-        <v>11.71888281656977</v>
+        <v>9.007634268033994</v>
       </c>
       <c r="N8">
-        <v>11.85140775700166</v>
+        <v>17.91271582411034</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85361216799338</v>
+        <v>9.814883296741549</v>
       </c>
       <c r="C9">
-        <v>8.847753279099525</v>
+        <v>5.351749181862227</v>
       </c>
       <c r="D9">
-        <v>5.353370414908135</v>
+        <v>5.088986741425787</v>
       </c>
       <c r="F9">
-        <v>18.17156306897667</v>
+        <v>23.76360981423054</v>
       </c>
       <c r="G9">
-        <v>22.46995170128298</v>
+        <v>27.853167414105</v>
       </c>
       <c r="H9">
-        <v>8.560830911894588</v>
+        <v>14.03013547906191</v>
       </c>
       <c r="I9">
-        <v>12.28462590856871</v>
+        <v>19.85244148053885</v>
       </c>
       <c r="K9">
-        <v>13.36050091019269</v>
+        <v>9.524735047721997</v>
       </c>
       <c r="N9">
-        <v>11.39458224284091</v>
+        <v>17.77694753897108</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.14889098240468</v>
+        <v>10.33444192899218</v>
       </c>
       <c r="C10">
-        <v>9.593319007234838</v>
+        <v>5.735433956751983</v>
       </c>
       <c r="D10">
-        <v>5.629429230232862</v>
+        <v>5.195352519191886</v>
       </c>
       <c r="F10">
-        <v>18.82074085158947</v>
+        <v>23.74487778453306</v>
       </c>
       <c r="G10">
-        <v>23.29874740834487</v>
+        <v>27.81217834842073</v>
       </c>
       <c r="H10">
-        <v>8.496725811395837</v>
+        <v>13.95858095833533</v>
       </c>
       <c r="I10">
-        <v>12.08199389576037</v>
+        <v>19.7174991609852</v>
       </c>
       <c r="K10">
-        <v>14.45273385641226</v>
+        <v>9.893626291666264</v>
       </c>
       <c r="N10">
-        <v>11.07147221806543</v>
+        <v>17.68551777860651</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.70729671729045</v>
+        <v>10.56341856356021</v>
       </c>
       <c r="C11">
-        <v>9.916011364241447</v>
+        <v>5.900815953714938</v>
       </c>
       <c r="D11">
-        <v>5.750342529499335</v>
+        <v>5.242507354872443</v>
       </c>
       <c r="F11">
-        <v>19.13387689653512</v>
+        <v>23.7437238541116</v>
       </c>
       <c r="G11">
-        <v>23.70815009623889</v>
+        <v>27.80449749384257</v>
       </c>
       <c r="H11">
-        <v>8.476272969901407</v>
+        <v>13.92860641447708</v>
       </c>
       <c r="I11">
-        <v>12.00542889661735</v>
+        <v>19.66041474188778</v>
       </c>
       <c r="K11">
-        <v>14.92503876297047</v>
+        <v>10.0582606963215</v>
       </c>
       <c r="N11">
-        <v>10.92695615913219</v>
+        <v>17.64571355222152</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.91436175920113</v>
+        <v>10.64899091596742</v>
       </c>
       <c r="C12">
-        <v>10.03586126830757</v>
+        <v>5.962114698639556</v>
       </c>
       <c r="D12">
-        <v>5.795438662258028</v>
+        <v>5.260178651483526</v>
       </c>
       <c r="F12">
-        <v>19.25499624728052</v>
+        <v>23.74434701321476</v>
       </c>
       <c r="G12">
-        <v>23.86785100929924</v>
+        <v>27.80317152355102</v>
       </c>
       <c r="H12">
-        <v>8.469863042700537</v>
+        <v>13.91762662467776</v>
       </c>
       <c r="I12">
-        <v>11.97886277061236</v>
+        <v>19.63941806146146</v>
       </c>
       <c r="K12">
-        <v>15.10037696743404</v>
+        <v>10.1200869036437</v>
       </c>
       <c r="N12">
-        <v>10.87256625843727</v>
+        <v>17.63089654527699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.86996120334215</v>
+        <v>10.63061302148037</v>
       </c>
       <c r="C13">
-        <v>10.01015343156732</v>
+        <v>5.948972117108309</v>
       </c>
       <c r="D13">
-        <v>5.785757425397897</v>
+        <v>5.256381184931247</v>
       </c>
       <c r="F13">
-        <v>19.22879837840359</v>
+        <v>23.74416565384137</v>
       </c>
       <c r="G13">
-        <v>23.83324888691581</v>
+        <v>27.80338663332059</v>
       </c>
       <c r="H13">
-        <v>8.471182804103789</v>
+        <v>13.91997481415181</v>
       </c>
       <c r="I13">
-        <v>11.98447328385105</v>
+        <v>19.64391247712578</v>
       </c>
       <c r="K13">
-        <v>15.06277065888508</v>
+        <v>10.10679544499182</v>
       </c>
       <c r="N13">
-        <v>10.88426551067226</v>
+        <v>17.63407628450141</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72441983987581</v>
+        <v>10.57048182495041</v>
       </c>
       <c r="C14">
-        <v>9.925918381639361</v>
+        <v>5.90588570265937</v>
       </c>
       <c r="D14">
-        <v>5.754066569656049</v>
+        <v>5.24396494044313</v>
       </c>
       <c r="F14">
-        <v>19.14379066030967</v>
+        <v>23.743753874474</v>
       </c>
       <c r="G14">
-        <v>23.72119520214791</v>
+        <v>27.80435666032764</v>
       </c>
       <c r="H14">
-        <v>8.475718378272559</v>
+        <v>13.92769566391806</v>
       </c>
       <c r="I14">
-        <v>12.00319355414796</v>
+        <v>19.65867489947595</v>
       </c>
       <c r="K14">
-        <v>14.93953423265645</v>
+        <v>10.0633578730652</v>
       </c>
       <c r="N14">
-        <v>10.92247486703762</v>
+        <v>17.64448942380375</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.63470097859578</v>
+        <v>10.53349967487991</v>
       </c>
       <c r="C15">
-        <v>9.874017080364228</v>
+        <v>5.879320831081724</v>
       </c>
       <c r="D15">
-        <v>5.734564463278725</v>
+        <v>5.236335276096553</v>
       </c>
       <c r="F15">
-        <v>19.09205124989402</v>
+        <v>23.74363971290748</v>
       </c>
       <c r="G15">
-        <v>23.65316720146777</v>
+        <v>27.80515707582575</v>
       </c>
       <c r="H15">
-        <v>8.47867293076003</v>
+        <v>13.9324732268426</v>
       </c>
       <c r="I15">
-        <v>12.01498197330006</v>
+        <v>19.66779808741696</v>
       </c>
       <c r="K15">
-        <v>14.86359144762362</v>
+        <v>10.03668202312536</v>
       </c>
       <c r="N15">
-        <v>10.94592225551332</v>
+        <v>17.65090107821657</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.11178106926228</v>
+        <v>10.31932270678769</v>
       </c>
       <c r="C16">
-        <v>9.571900652811573</v>
+        <v>5.724440572938248</v>
       </c>
       <c r="D16">
-        <v>5.621431566268659</v>
+        <v>5.192245356382927</v>
       </c>
       <c r="F16">
-        <v>18.80063359682812</v>
+        <v>23.74510152849749</v>
       </c>
       <c r="G16">
-        <v>23.27264506456777</v>
+        <v>27.81290149368891</v>
       </c>
       <c r="H16">
-        <v>8.498244703762566</v>
+        <v>13.96059174284781</v>
       </c>
       <c r="I16">
-        <v>12.08732710001199</v>
+        <v>19.72131643803753</v>
       </c>
       <c r="K16">
-        <v>14.42137485377112</v>
+        <v>9.882797855006412</v>
       </c>
       <c r="N16">
-        <v>11.08096467893768</v>
+        <v>17.68815495837725</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.783120463705</v>
+        <v>10.18598673378914</v>
       </c>
       <c r="C17">
-        <v>9.382357920996707</v>
+        <v>5.627072264137655</v>
       </c>
       <c r="D17">
-        <v>5.550817591715954</v>
+        <v>5.16487631327396</v>
       </c>
       <c r="F17">
-        <v>18.62640952012999</v>
+        <v>23.74788606050668</v>
       </c>
       <c r="G17">
-        <v>23.04751549128893</v>
+        <v>27.82046556473497</v>
       </c>
       <c r="H17">
-        <v>8.512539819642285</v>
+        <v>13.97850166218068</v>
       </c>
       <c r="I17">
-        <v>12.13583354992389</v>
+        <v>19.75525091546775</v>
       </c>
       <c r="K17">
-        <v>14.14381033938029</v>
+        <v>9.78753690234111</v>
       </c>
       <c r="N17">
-        <v>11.16442719394319</v>
+        <v>17.71146609696842</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.59117969282319</v>
+        <v>10.10860534348987</v>
       </c>
       <c r="C18">
-        <v>9.27178623893057</v>
+        <v>5.570207034777974</v>
       </c>
       <c r="D18">
-        <v>5.509763982612625</v>
+        <v>5.149018914912713</v>
       </c>
       <c r="F18">
-        <v>18.52787962209174</v>
+        <v>23.7501811163314</v>
       </c>
       <c r="G18">
-        <v>22.92107523789931</v>
+        <v>27.82584807686194</v>
       </c>
       <c r="H18">
-        <v>8.521576561483842</v>
+        <v>13.98904540617291</v>
       </c>
       <c r="I18">
-        <v>12.1651911764529</v>
+        <v>19.77517392242727</v>
       </c>
       <c r="K18">
-        <v>13.98184963084715</v>
+        <v>9.732449706582212</v>
       </c>
       <c r="N18">
-        <v>11.21266617768881</v>
+        <v>17.72504237057482</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.52569189534373</v>
+        <v>10.08228927615792</v>
       </c>
       <c r="C19">
-        <v>9.234081466612922</v>
+        <v>5.550805851433652</v>
       </c>
       <c r="D19">
-        <v>5.495789314526903</v>
+        <v>5.143630297128833</v>
       </c>
       <c r="F19">
-        <v>18.4948080530232</v>
+        <v>23.75107724968406</v>
       </c>
       <c r="G19">
-        <v>22.8787875877694</v>
+        <v>27.82784752194884</v>
       </c>
       <c r="H19">
-        <v>8.524773678701669</v>
+        <v>13.99265695954128</v>
       </c>
       <c r="I19">
-        <v>12.1753762075306</v>
+        <v>19.781988992001</v>
       </c>
       <c r="K19">
-        <v>13.92661482356792</v>
+        <v>9.71374927621768</v>
       </c>
       <c r="N19">
-        <v>11.22903977199884</v>
+        <v>17.72966800604318</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.81840719811295</v>
+        <v>10.20025257319382</v>
       </c>
       <c r="C20">
-        <v>9.402695521339673</v>
+        <v>5.63752654219032</v>
       </c>
       <c r="D20">
-        <v>5.558380088751698</v>
+        <v>5.16780180309442</v>
       </c>
       <c r="F20">
-        <v>18.64478231948637</v>
+        <v>23.7475178630481</v>
       </c>
       <c r="G20">
-        <v>23.07116527673877</v>
+        <v>27.81955351567976</v>
       </c>
       <c r="H20">
-        <v>8.510933185552144</v>
+        <v>13.97657002627307</v>
       </c>
       <c r="I20">
-        <v>12.13051777365875</v>
+        <v>19.75159662785551</v>
       </c>
       <c r="K20">
-        <v>14.17359682601209</v>
+        <v>9.797708641561108</v>
       </c>
       <c r="N20">
-        <v>11.1555184357769</v>
+        <v>17.70896717342836</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.76728769545804</v>
+        <v>10.5881752094264</v>
       </c>
       <c r="C21">
-        <v>9.95072375480275</v>
+        <v>5.918577337107435</v>
       </c>
       <c r="D21">
-        <v>5.763393842397596</v>
+        <v>5.24761698223561</v>
       </c>
       <c r="F21">
-        <v>19.16869070332951</v>
+        <v>23.74384605142823</v>
       </c>
       <c r="G21">
-        <v>23.75398135574615</v>
+        <v>27.80402875035869</v>
       </c>
       <c r="H21">
-        <v>8.474349260215282</v>
+        <v>13.92541779254991</v>
       </c>
       <c r="I21">
-        <v>11.99762757164815</v>
+        <v>19.65432198157247</v>
       </c>
       <c r="K21">
-        <v>14.97582693879408</v>
+        <v>10.07613103936095</v>
       </c>
       <c r="N21">
-        <v>10.91124291658799</v>
+        <v>17.64142389333834</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.36186258663359</v>
+        <v>10.83505383334215</v>
       </c>
       <c r="C22">
-        <v>10.29522631749663</v>
+        <v>6.09451747386518</v>
       </c>
       <c r="D22">
-        <v>5.893346749603432</v>
+        <v>5.29869770509876</v>
       </c>
       <c r="F22">
-        <v>19.52589663982274</v>
+        <v>23.74762521804673</v>
       </c>
       <c r="G22">
-        <v>24.22745023767153</v>
+        <v>27.80310856240688</v>
       </c>
       <c r="H22">
-        <v>8.458262231549615</v>
+        <v>13.89414908643427</v>
       </c>
       <c r="I22">
-        <v>11.92501708782645</v>
+        <v>19.59436159909694</v>
       </c>
       <c r="K22">
-        <v>15.47966426881671</v>
+        <v>10.25505625909332</v>
       </c>
       <c r="N22">
-        <v>10.75353885673998</v>
+        <v>17.59877207282979</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.04685233268172</v>
+        <v>10.70392143539876</v>
       </c>
       <c r="C23">
-        <v>10.11260108771168</v>
+        <v>6.00132628860857</v>
       </c>
       <c r="D23">
-        <v>5.824363483084808</v>
+        <v>5.271536663858258</v>
       </c>
       <c r="F23">
-        <v>19.33390282412253</v>
+        <v>23.74504284040269</v>
       </c>
       <c r="G23">
-        <v>23.9722614282718</v>
+        <v>27.8027539992002</v>
       </c>
       <c r="H23">
-        <v>8.466104255477331</v>
+        <v>13.91063977318484</v>
       </c>
       <c r="I23">
-        <v>11.96240456909544</v>
+        <v>19.62603240967</v>
       </c>
       <c r="K23">
-        <v>15.21262203653625</v>
+        <v>10.15985748140819</v>
       </c>
       <c r="N23">
-        <v>10.83753729905198</v>
+        <v>17.62140001877843</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.80246337992016</v>
+        <v>10.19380523881283</v>
       </c>
       <c r="C24">
-        <v>9.393505880696582</v>
+        <v>5.632802924733122</v>
       </c>
       <c r="D24">
-        <v>5.554962504794777</v>
+        <v>5.166479570306535</v>
       </c>
       <c r="F24">
-        <v>18.63647088625533</v>
+        <v>23.74768216282967</v>
       </c>
       <c r="G24">
-        <v>23.06046389751684</v>
+        <v>27.81996263322205</v>
       </c>
       <c r="H24">
-        <v>8.511657002268654</v>
+        <v>13.97744254921792</v>
       </c>
       <c r="I24">
-        <v>12.13291646911084</v>
+        <v>19.75324744296861</v>
       </c>
       <c r="K24">
-        <v>14.16013778597106</v>
+        <v>9.79311099159063</v>
       </c>
       <c r="N24">
-        <v>11.15954528874232</v>
+        <v>17.71009639345689</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.34902562392305</v>
+        <v>9.617569907572873</v>
       </c>
       <c r="C25">
-        <v>8.558467989848562</v>
+        <v>5.202422773511414</v>
       </c>
       <c r="D25">
-        <v>5.247721613788802</v>
+        <v>5.048780229710152</v>
       </c>
       <c r="F25">
-        <v>17.94839927399708</v>
+        <v>23.77703014725986</v>
       </c>
       <c r="G25">
-        <v>22.19323713425598</v>
+        <v>27.8779362565867</v>
       </c>
       <c r="H25">
-        <v>8.591628275600449</v>
+        <v>14.05876692979556</v>
       </c>
       <c r="I25">
-        <v>12.37194446424072</v>
+        <v>19.90594044241988</v>
       </c>
       <c r="K25">
-        <v>12.9364180270822</v>
+        <v>9.386498405155063</v>
       </c>
       <c r="N25">
-        <v>11.51588729135163</v>
+        <v>17.81220982210413</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.174161214183117</v>
+        <v>13.18172711658268</v>
       </c>
       <c r="C2">
-        <v>4.857791381020579</v>
+        <v>7.891891006161145</v>
       </c>
       <c r="D2">
-        <v>4.958651792367739</v>
+        <v>5.008055221622675</v>
       </c>
       <c r="F2">
-        <v>23.82134475437357</v>
+        <v>17.49720683937234</v>
       </c>
       <c r="G2">
-        <v>27.95420364659922</v>
+        <v>21.65276765311697</v>
       </c>
       <c r="H2">
-        <v>14.12660604355934</v>
+        <v>8.674144439691231</v>
       </c>
       <c r="I2">
-        <v>20.03164163482821</v>
+        <v>12.58921113515205</v>
       </c>
       <c r="K2">
-        <v>9.08004166712103</v>
+        <v>11.95887924984704</v>
       </c>
       <c r="N2">
-        <v>17.89298858080832</v>
+        <v>11.78675524016799</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.863691952697499</v>
+        <v>12.32939060403555</v>
       </c>
       <c r="C3">
-        <v>4.607323665256415</v>
+        <v>7.407690495182341</v>
       </c>
       <c r="D3">
-        <v>4.895570032497602</v>
+        <v>4.837804147340901</v>
       </c>
       <c r="F3">
-        <v>23.86547223680638</v>
+        <v>17.22576575799262</v>
       </c>
       <c r="G3">
-        <v>28.02663593442987</v>
+        <v>21.34579300911076</v>
       </c>
       <c r="H3">
-        <v>14.17754213885025</v>
+        <v>8.74344871579242</v>
       </c>
       <c r="I3">
-        <v>20.12509569139831</v>
+        <v>12.75943031389995</v>
       </c>
       <c r="K3">
-        <v>8.869300602230227</v>
+        <v>11.24870070696954</v>
       </c>
       <c r="N3">
-        <v>17.95124945711763</v>
+        <v>11.97598219228281</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.668911505669886</v>
+        <v>11.77567149478215</v>
       </c>
       <c r="C4">
-        <v>4.445381584742468</v>
+        <v>7.094383502820993</v>
       </c>
       <c r="D4">
-        <v>4.855908001366819</v>
+        <v>4.729636460213768</v>
       </c>
       <c r="F4">
-        <v>23.89948960618854</v>
+        <v>17.07582537682993</v>
       </c>
       <c r="G4">
-        <v>28.08126294296581</v>
+        <v>21.18564251357282</v>
       </c>
       <c r="H4">
-        <v>14.21126249055108</v>
+        <v>8.792177732656018</v>
       </c>
       <c r="I4">
-        <v>20.1865487851903</v>
+        <v>12.8744437611977</v>
       </c>
       <c r="K4">
-        <v>8.73889279088246</v>
+        <v>10.78924340208198</v>
       </c>
       <c r="N4">
-        <v>17.98876526023162</v>
+        <v>12.09507146114718</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.588620535939423</v>
+        <v>11.54236888404404</v>
       </c>
       <c r="C5">
-        <v>4.377373768105642</v>
+        <v>6.962692996539823</v>
       </c>
       <c r="D5">
-        <v>4.839520727984005</v>
+        <v>4.684682932139753</v>
       </c>
       <c r="F5">
-        <v>23.91508791782974</v>
+        <v>17.01888312959907</v>
       </c>
       <c r="G5">
-        <v>28.10606428699805</v>
+        <v>21.12733550545151</v>
       </c>
       <c r="H5">
-        <v>14.22561844392268</v>
+        <v>8.813527798609881</v>
       </c>
       <c r="I5">
-        <v>20.21261453066143</v>
+        <v>12.92383672908103</v>
       </c>
       <c r="K5">
-        <v>8.685574494422752</v>
+        <v>10.59615864657797</v>
       </c>
       <c r="N5">
-        <v>18.00449285913779</v>
+        <v>12.14434702247652</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.575236874607423</v>
+        <v>11.50316626324099</v>
       </c>
       <c r="C6">
-        <v>4.36596058872292</v>
+        <v>6.940583816240524</v>
       </c>
       <c r="D6">
-        <v>4.836786333589527</v>
+        <v>4.677166857974379</v>
       </c>
       <c r="F6">
-        <v>23.91778269666673</v>
+        <v>17.00967746980097</v>
       </c>
       <c r="G6">
-        <v>28.11033556917344</v>
+        <v>21.11806819945205</v>
       </c>
       <c r="H6">
-        <v>14.22803935364686</v>
+        <v>8.817161397471459</v>
       </c>
       <c r="I6">
-        <v>20.21700449832267</v>
+        <v>12.93218760812747</v>
       </c>
       <c r="K6">
-        <v>8.676712747335484</v>
+        <v>10.56374487472451</v>
       </c>
       <c r="N6">
-        <v>18.00713100180323</v>
+        <v>12.15257468197361</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.667832207423439</v>
+        <v>11.77255611885799</v>
       </c>
       <c r="C7">
-        <v>4.444472514735978</v>
+        <v>7.092623717997061</v>
       </c>
       <c r="D7">
-        <v>4.855687894416655</v>
+        <v>4.729033686298418</v>
       </c>
       <c r="F7">
-        <v>23.89969294862859</v>
+        <v>17.07504066464159</v>
       </c>
       <c r="G7">
-        <v>28.0815871543388</v>
+        <v>21.18482824900632</v>
       </c>
       <c r="H7">
-        <v>14.21145361168473</v>
+        <v>8.792459701394471</v>
       </c>
       <c r="I7">
-        <v>20.18689617545991</v>
+        <v>12.87509981935824</v>
       </c>
       <c r="K7">
-        <v>8.738174328768165</v>
+        <v>10.78666303429854</v>
       </c>
       <c r="N7">
-        <v>17.98897558657664</v>
+        <v>12.09573296875575</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.068046054378023</v>
+        <v>12.89413427342007</v>
       </c>
       <c r="C8">
-        <v>4.773141445514077</v>
+        <v>7.728263779213195</v>
       </c>
       <c r="D8">
-        <v>4.937099504316357</v>
+        <v>4.950128804009581</v>
       </c>
       <c r="F8">
-        <v>23.83512034917584</v>
+        <v>17.40011994692983</v>
       </c>
       <c r="G8">
-        <v>27.97706369296795</v>
+        <v>21.54095082093897</v>
       </c>
       <c r="H8">
-        <v>14.14366110511468</v>
+        <v>8.696721556747669</v>
       </c>
       <c r="I8">
-        <v>20.06301897482841</v>
+        <v>12.64565162256187</v>
       </c>
       <c r="K8">
-        <v>9.007634268033994</v>
+        <v>11.71888281656978</v>
       </c>
       <c r="N8">
-        <v>17.91271582411034</v>
+        <v>11.85140775700163</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.814883296741549</v>
+        <v>14.85361216799342</v>
       </c>
       <c r="C9">
-        <v>5.351749181862227</v>
+        <v>8.847753279099493</v>
       </c>
       <c r="D9">
-        <v>5.088986741425787</v>
+        <v>5.353370414908078</v>
       </c>
       <c r="F9">
-        <v>23.76360981423054</v>
+        <v>18.17156306897672</v>
       </c>
       <c r="G9">
-        <v>27.853167414105</v>
+        <v>22.46995170128301</v>
       </c>
       <c r="H9">
-        <v>14.03013547906191</v>
+        <v>8.560830911894588</v>
       </c>
       <c r="I9">
-        <v>19.85244148053885</v>
+        <v>12.28462590856877</v>
       </c>
       <c r="K9">
-        <v>9.524735047721997</v>
+        <v>13.36050091019269</v>
       </c>
       <c r="N9">
-        <v>17.77694753897108</v>
+        <v>11.39458224284095</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.33444192899218</v>
+        <v>16.14889098240473</v>
       </c>
       <c r="C10">
-        <v>5.735433956751983</v>
+        <v>9.593319007234928</v>
       </c>
       <c r="D10">
-        <v>5.195352519191886</v>
+        <v>5.629429230232734</v>
       </c>
       <c r="F10">
-        <v>23.74487778453306</v>
+        <v>18.82074085158951</v>
       </c>
       <c r="G10">
-        <v>27.81217834842073</v>
+        <v>23.29874740834484</v>
       </c>
       <c r="H10">
-        <v>13.95858095833533</v>
+        <v>8.496725811395816</v>
       </c>
       <c r="I10">
-        <v>19.7174991609852</v>
+        <v>12.08199389576034</v>
       </c>
       <c r="K10">
-        <v>9.893626291666264</v>
+        <v>14.45273385641233</v>
       </c>
       <c r="N10">
-        <v>17.68551777860651</v>
+        <v>11.07147221806538</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.56341856356021</v>
+        <v>16.70729671729048</v>
       </c>
       <c r="C11">
-        <v>5.900815953714938</v>
+        <v>9.916011364241447</v>
       </c>
       <c r="D11">
-        <v>5.242507354872443</v>
+        <v>5.750342529499243</v>
       </c>
       <c r="F11">
-        <v>23.7437238541116</v>
+        <v>19.13387689653522</v>
       </c>
       <c r="G11">
-        <v>27.80449749384257</v>
+        <v>23.70815009623896</v>
       </c>
       <c r="H11">
-        <v>13.92860641447708</v>
+        <v>8.476272969901434</v>
       </c>
       <c r="I11">
-        <v>19.66041474188778</v>
+        <v>12.00542889661732</v>
       </c>
       <c r="K11">
-        <v>10.0582606963215</v>
+        <v>14.92503876297048</v>
       </c>
       <c r="N11">
-        <v>17.64571355222152</v>
+        <v>10.92695615913215</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.64899091596742</v>
+        <v>16.9143617592011</v>
       </c>
       <c r="C12">
-        <v>5.962114698639556</v>
+        <v>10.03586126830767</v>
       </c>
       <c r="D12">
-        <v>5.260178651483526</v>
+        <v>5.795438662258022</v>
       </c>
       <c r="F12">
-        <v>23.74434701321476</v>
+        <v>19.25499624728053</v>
       </c>
       <c r="G12">
-        <v>27.80317152355102</v>
+        <v>23.86785100929923</v>
       </c>
       <c r="H12">
-        <v>13.91762662467776</v>
+        <v>8.469863042700576</v>
       </c>
       <c r="I12">
-        <v>19.63941806146146</v>
+        <v>11.97886277061241</v>
       </c>
       <c r="K12">
-        <v>10.1200869036437</v>
+        <v>15.10037696743402</v>
       </c>
       <c r="N12">
-        <v>17.63089654527699</v>
+        <v>10.8725662584373</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.63061302148037</v>
+        <v>16.86996120334219</v>
       </c>
       <c r="C13">
-        <v>5.948972117108309</v>
+        <v>10.01015343156726</v>
       </c>
       <c r="D13">
-        <v>5.256381184931247</v>
+        <v>5.785757425397914</v>
       </c>
       <c r="F13">
-        <v>23.74416565384137</v>
+        <v>19.22879837840357</v>
       </c>
       <c r="G13">
-        <v>27.80338663332059</v>
+        <v>23.83324888691577</v>
       </c>
       <c r="H13">
-        <v>13.91997481415181</v>
+        <v>8.471182804103734</v>
       </c>
       <c r="I13">
-        <v>19.64391247712578</v>
+        <v>11.98447328385099</v>
       </c>
       <c r="K13">
-        <v>10.10679544499182</v>
+        <v>15.06277065888507</v>
       </c>
       <c r="N13">
-        <v>17.63407628450141</v>
+        <v>10.88426551067222</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.57048182495041</v>
+        <v>16.72441983987584</v>
       </c>
       <c r="C14">
-        <v>5.90588570265937</v>
+        <v>9.925918381639214</v>
       </c>
       <c r="D14">
-        <v>5.24396494044313</v>
+        <v>5.754066569656129</v>
       </c>
       <c r="F14">
-        <v>23.743753874474</v>
+        <v>19.14379066030973</v>
       </c>
       <c r="G14">
-        <v>27.80435666032764</v>
+        <v>23.72119520214802</v>
       </c>
       <c r="H14">
-        <v>13.92769566391806</v>
+        <v>8.475718378272626</v>
       </c>
       <c r="I14">
-        <v>19.65867489947595</v>
+        <v>12.00319355414804</v>
       </c>
       <c r="K14">
-        <v>10.0633578730652</v>
+        <v>14.93953423265643</v>
       </c>
       <c r="N14">
-        <v>17.64448942380375</v>
+        <v>10.92247486703764</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.53349967487991</v>
+        <v>16.63470097859585</v>
       </c>
       <c r="C15">
-        <v>5.879320831081724</v>
+        <v>9.874017080364363</v>
       </c>
       <c r="D15">
-        <v>5.236335276096553</v>
+        <v>5.73456446327862</v>
       </c>
       <c r="F15">
-        <v>23.74363971290748</v>
+        <v>19.09205124989394</v>
       </c>
       <c r="G15">
-        <v>27.80515707582575</v>
+        <v>23.6531672014677</v>
       </c>
       <c r="H15">
-        <v>13.9324732268426</v>
+        <v>8.478672930759974</v>
       </c>
       <c r="I15">
-        <v>19.66779808741696</v>
+        <v>12.01498197329992</v>
       </c>
       <c r="K15">
-        <v>10.03668202312536</v>
+        <v>14.86359144762368</v>
       </c>
       <c r="N15">
-        <v>17.65090107821657</v>
+        <v>10.94592225551325</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.31932270678769</v>
+        <v>16.11178106926237</v>
       </c>
       <c r="C16">
-        <v>5.724440572938248</v>
+        <v>9.571900652811525</v>
       </c>
       <c r="D16">
-        <v>5.192245356382927</v>
+        <v>5.621431566268779</v>
       </c>
       <c r="F16">
-        <v>23.74510152849749</v>
+        <v>18.80063359682795</v>
       </c>
       <c r="G16">
-        <v>27.81290149368891</v>
+        <v>23.27264506456757</v>
       </c>
       <c r="H16">
-        <v>13.96059174284781</v>
+        <v>8.498244703762523</v>
       </c>
       <c r="I16">
-        <v>19.72131643803753</v>
+        <v>12.08732710001179</v>
       </c>
       <c r="K16">
-        <v>9.882797855006412</v>
+        <v>14.42137485377121</v>
       </c>
       <c r="N16">
-        <v>17.68815495837725</v>
+        <v>11.08096467893757</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.18598673378914</v>
+        <v>15.78312046370501</v>
       </c>
       <c r="C17">
-        <v>5.627072264137655</v>
+        <v>9.382357920996737</v>
       </c>
       <c r="D17">
-        <v>5.16487631327396</v>
+        <v>5.550817591715908</v>
       </c>
       <c r="F17">
-        <v>23.74788606050668</v>
+        <v>18.62640952013</v>
       </c>
       <c r="G17">
-        <v>27.82046556473497</v>
+        <v>23.04751549128903</v>
       </c>
       <c r="H17">
-        <v>13.97850166218068</v>
+        <v>8.512539819642242</v>
       </c>
       <c r="I17">
-        <v>19.75525091546775</v>
+        <v>12.13583354992393</v>
       </c>
       <c r="K17">
-        <v>9.78753690234111</v>
+        <v>14.14381033938031</v>
       </c>
       <c r="N17">
-        <v>17.71146609696842</v>
+        <v>11.16442719394318</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.10860534348987</v>
+        <v>15.59117969282321</v>
       </c>
       <c r="C18">
-        <v>5.570207034777974</v>
+        <v>9.271786238930661</v>
       </c>
       <c r="D18">
-        <v>5.149018914912713</v>
+        <v>5.509763982612582</v>
       </c>
       <c r="F18">
-        <v>23.7501811163314</v>
+        <v>18.52787962209187</v>
       </c>
       <c r="G18">
-        <v>27.82584807686194</v>
+        <v>22.92107523789945</v>
       </c>
       <c r="H18">
-        <v>13.98904540617291</v>
+        <v>8.52157656148386</v>
       </c>
       <c r="I18">
-        <v>19.77517392242727</v>
+        <v>12.16519117645302</v>
       </c>
       <c r="K18">
-        <v>9.732449706582212</v>
+        <v>13.98184963084716</v>
       </c>
       <c r="N18">
-        <v>17.72504237057482</v>
+        <v>11.21266617768884</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.08228927615792</v>
+        <v>15.52569189534372</v>
       </c>
       <c r="C19">
-        <v>5.550805851433652</v>
+        <v>9.234081466612983</v>
       </c>
       <c r="D19">
-        <v>5.143630297128833</v>
+        <v>5.495789314526928</v>
       </c>
       <c r="F19">
-        <v>23.75107724968406</v>
+        <v>18.49480805302329</v>
       </c>
       <c r="G19">
-        <v>27.82784752194884</v>
+        <v>22.87878758776958</v>
       </c>
       <c r="H19">
-        <v>13.99265695954128</v>
+        <v>8.524773678701751</v>
       </c>
       <c r="I19">
-        <v>19.781988992001</v>
+        <v>12.17537620753069</v>
       </c>
       <c r="K19">
-        <v>9.71374927621768</v>
+        <v>13.9266148235679</v>
       </c>
       <c r="N19">
-        <v>17.72966800604318</v>
+        <v>11.22903977199893</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.20025257319382</v>
+        <v>15.818407198113</v>
       </c>
       <c r="C20">
-        <v>5.63752654219032</v>
+        <v>9.402695521339616</v>
       </c>
       <c r="D20">
-        <v>5.16780180309442</v>
+        <v>5.558380088751831</v>
       </c>
       <c r="F20">
-        <v>23.7475178630481</v>
+        <v>18.64478231948626</v>
       </c>
       <c r="G20">
-        <v>27.81955351567976</v>
+        <v>23.07116527673873</v>
       </c>
       <c r="H20">
-        <v>13.97657002627307</v>
+        <v>8.510933185552059</v>
       </c>
       <c r="I20">
-        <v>19.75159662785551</v>
+        <v>12.13051777365861</v>
       </c>
       <c r="K20">
-        <v>9.797708641561108</v>
+        <v>14.17359682601212</v>
       </c>
       <c r="N20">
-        <v>17.70896717342836</v>
+        <v>11.15551843577679</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.5881752094264</v>
+        <v>16.76728769545797</v>
       </c>
       <c r="C21">
-        <v>5.918577337107435</v>
+        <v>9.950723754802898</v>
       </c>
       <c r="D21">
-        <v>5.24761698223561</v>
+        <v>5.76339384239759</v>
       </c>
       <c r="F21">
-        <v>23.74384605142823</v>
+        <v>19.1686907033295</v>
       </c>
       <c r="G21">
-        <v>27.80402875035869</v>
+        <v>23.75398135574615</v>
       </c>
       <c r="H21">
-        <v>13.92541779254991</v>
+        <v>8.474349260215289</v>
       </c>
       <c r="I21">
-        <v>19.65432198157247</v>
+        <v>11.99762757164824</v>
       </c>
       <c r="K21">
-        <v>10.07613103936095</v>
+        <v>14.97582693879408</v>
       </c>
       <c r="N21">
-        <v>17.64142389333834</v>
+        <v>10.91124291658799</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.83505383334215</v>
+        <v>17.36186258663362</v>
       </c>
       <c r="C22">
-        <v>6.09451747386518</v>
+        <v>10.29522631749664</v>
       </c>
       <c r="D22">
-        <v>5.29869770509876</v>
+        <v>5.893346749603529</v>
       </c>
       <c r="F22">
-        <v>23.74762521804673</v>
+        <v>19.52589663982265</v>
       </c>
       <c r="G22">
-        <v>27.80310856240688</v>
+        <v>24.22745023767151</v>
       </c>
       <c r="H22">
-        <v>13.89414908643427</v>
+        <v>8.458262231549524</v>
       </c>
       <c r="I22">
-        <v>19.59436159909694</v>
+        <v>11.92501708782639</v>
       </c>
       <c r="K22">
-        <v>10.25505625909332</v>
+        <v>15.47966426881676</v>
       </c>
       <c r="N22">
-        <v>17.59877207282979</v>
+        <v>10.75353885673991</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.70392143539876</v>
+        <v>17.04685233268175</v>
       </c>
       <c r="C23">
-        <v>6.00132628860857</v>
+        <v>10.11260108771163</v>
       </c>
       <c r="D23">
-        <v>5.271536663858258</v>
+        <v>5.824363483084807</v>
       </c>
       <c r="F23">
-        <v>23.74504284040269</v>
+        <v>19.33390282412254</v>
       </c>
       <c r="G23">
-        <v>27.8027539992002</v>
+        <v>23.97226142827177</v>
       </c>
       <c r="H23">
-        <v>13.91063977318484</v>
+        <v>8.466104255477342</v>
       </c>
       <c r="I23">
-        <v>19.62603240967</v>
+        <v>11.96240456909534</v>
       </c>
       <c r="K23">
-        <v>10.15985748140819</v>
+        <v>15.21262203653627</v>
       </c>
       <c r="N23">
-        <v>17.62140001877843</v>
+        <v>10.83753729905191</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.19380523881283</v>
+        <v>15.80246337992017</v>
       </c>
       <c r="C24">
-        <v>5.632802924733122</v>
+        <v>9.393505880696553</v>
       </c>
       <c r="D24">
-        <v>5.166479570306535</v>
+        <v>5.554962504794658</v>
       </c>
       <c r="F24">
-        <v>23.74768216282967</v>
+        <v>18.63647088625548</v>
       </c>
       <c r="G24">
-        <v>27.81996263322205</v>
+        <v>23.06046389751696</v>
       </c>
       <c r="H24">
-        <v>13.97744254921792</v>
+        <v>8.511657002268683</v>
       </c>
       <c r="I24">
-        <v>19.75324744296861</v>
+        <v>12.13291646911089</v>
       </c>
       <c r="K24">
-        <v>9.79311099159063</v>
+        <v>14.16013778597104</v>
       </c>
       <c r="N24">
-        <v>17.71009639345689</v>
+        <v>11.15954528874231</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.617569907572873</v>
+        <v>14.34902562392303</v>
       </c>
       <c r="C25">
-        <v>5.202422773511414</v>
+        <v>8.558467989848594</v>
       </c>
       <c r="D25">
-        <v>5.048780229710152</v>
+        <v>5.247721613788903</v>
       </c>
       <c r="F25">
-        <v>23.77703014725986</v>
+        <v>17.94839927399702</v>
       </c>
       <c r="G25">
-        <v>27.8779362565867</v>
+        <v>22.1932371342558</v>
       </c>
       <c r="H25">
-        <v>14.05876692979556</v>
+        <v>8.591628275600501</v>
       </c>
       <c r="I25">
-        <v>19.90594044241988</v>
+        <v>12.37194446424069</v>
       </c>
       <c r="K25">
-        <v>9.386498405155063</v>
+        <v>12.9364180270822</v>
       </c>
       <c r="N25">
-        <v>17.81220982210413</v>
+        <v>11.51588729135156</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.18172711658268</v>
+        <v>13.63226011140165</v>
       </c>
       <c r="C2">
-        <v>7.891891006161145</v>
+        <v>8.834518911505388</v>
       </c>
       <c r="D2">
-        <v>5.008055221622675</v>
+        <v>5.329227444391826</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17.49720683937234</v>
+        <v>16.90118427783443</v>
       </c>
       <c r="G2">
-        <v>21.65276765311697</v>
+        <v>20.55924289812176</v>
       </c>
       <c r="H2">
-        <v>8.674144439691231</v>
+        <v>1.969607798742456</v>
       </c>
       <c r="I2">
-        <v>12.58921113515205</v>
+        <v>2.681333433300684</v>
+      </c>
+      <c r="J2">
+        <v>8.642423525692518</v>
       </c>
       <c r="K2">
-        <v>11.95887924984704</v>
+        <v>14.67409168334894</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.1267380997608</v>
       </c>
       <c r="N2">
-        <v>11.78675524016799</v>
+        <v>8.786102399316253</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.39171692438836</v>
+      </c>
+      <c r="Q2">
+        <v>13.8293404982468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32939060403555</v>
+        <v>12.73579019489346</v>
       </c>
       <c r="C3">
-        <v>7.407690495182341</v>
+        <v>8.725365667901789</v>
       </c>
       <c r="D3">
-        <v>4.837804147340901</v>
+        <v>5.104325721905212</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.22576575799262</v>
+        <v>16.61709020587369</v>
       </c>
       <c r="G3">
-        <v>21.34579300911076</v>
+        <v>20.24405512604584</v>
       </c>
       <c r="H3">
-        <v>8.74344871579242</v>
+        <v>2.137282834249739</v>
       </c>
       <c r="I3">
-        <v>12.75943031389995</v>
+        <v>2.806342092996953</v>
+      </c>
+      <c r="J3">
+        <v>8.664975726231676</v>
       </c>
       <c r="K3">
-        <v>11.24870070696954</v>
+        <v>14.69180485300694</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10.55206943267947</v>
       </c>
       <c r="N3">
-        <v>11.97598219228281</v>
+        <v>8.437829502962405</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.50804201310209</v>
+      </c>
+      <c r="Q3">
+        <v>13.79436694098679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.77567149478215</v>
+        <v>12.16093030506804</v>
       </c>
       <c r="C4">
-        <v>7.094383502820993</v>
+        <v>8.656448370257435</v>
       </c>
       <c r="D4">
-        <v>4.729636460213768</v>
+        <v>4.960575482706108</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>17.07582537682993</v>
+        <v>16.44758580381802</v>
       </c>
       <c r="G4">
-        <v>21.18564251357282</v>
+        <v>20.05748528626483</v>
       </c>
       <c r="H4">
-        <v>8.792177732656018</v>
+        <v>2.244337256352158</v>
       </c>
       <c r="I4">
-        <v>12.8744437611977</v>
+        <v>2.886986468351203</v>
+      </c>
+      <c r="J4">
+        <v>8.681262206167975</v>
       </c>
       <c r="K4">
-        <v>10.78924340208198</v>
+        <v>14.70575711513762</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10.18166861889134</v>
       </c>
       <c r="N4">
-        <v>12.09507146114718</v>
+        <v>8.216245099246063</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.58118844849453</v>
+      </c>
+      <c r="Q4">
+        <v>13.77784448749041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.54236888404404</v>
+        <v>11.9172259734495</v>
       </c>
       <c r="C5">
-        <v>6.962692996539823</v>
+        <v>8.628844896404724</v>
       </c>
       <c r="D5">
-        <v>4.684682932139753</v>
+        <v>4.901727712705792</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17.01888312959907</v>
+        <v>16.37477895021841</v>
       </c>
       <c r="G5">
-        <v>21.12733550545151</v>
+        <v>19.97441910468378</v>
       </c>
       <c r="H5">
-        <v>8.813527798609881</v>
+        <v>2.289287080306836</v>
       </c>
       <c r="I5">
-        <v>12.92383672908103</v>
+        <v>2.92373019168792</v>
+      </c>
+      <c r="J5">
+        <v>8.687161587135479</v>
       </c>
       <c r="K5">
-        <v>10.59615864657797</v>
+        <v>14.70812005748728</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10.02653231186799</v>
       </c>
       <c r="N5">
-        <v>12.14434702247652</v>
+        <v>8.123903528033349</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.61137118554615</v>
+      </c>
+      <c r="Q5">
+        <v>13.76886259667293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.50316626324099</v>
+        <v>11.87014063123324</v>
       </c>
       <c r="C6">
-        <v>6.940583816240524</v>
+        <v>8.625441847244119</v>
       </c>
       <c r="D6">
-        <v>4.677166857974379</v>
+        <v>4.893239788440772</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17.00967746980097</v>
+        <v>16.35661368648798</v>
       </c>
       <c r="G6">
-        <v>21.11806819945205</v>
+        <v>19.9499381661973</v>
       </c>
       <c r="H6">
-        <v>8.817161397471459</v>
+        <v>2.297159098441891</v>
       </c>
       <c r="I6">
-        <v>12.93218760812747</v>
+        <v>2.933626667791633</v>
+      </c>
+      <c r="J6">
+        <v>8.686539893121008</v>
       </c>
       <c r="K6">
-        <v>10.56374487472451</v>
+        <v>14.70357039992105</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10.00067289521589</v>
       </c>
       <c r="N6">
-        <v>12.15257468197361</v>
+        <v>8.108233177562349</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.61633830391614</v>
+      </c>
+      <c r="Q6">
+        <v>13.76320216156879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.77255611885799</v>
+        <v>12.14136402308419</v>
       </c>
       <c r="C7">
-        <v>7.092623717997061</v>
+        <v>8.65941132682625</v>
       </c>
       <c r="D7">
-        <v>4.729033686298418</v>
+        <v>4.963474992173504</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>17.07504066464159</v>
+        <v>16.42988680567154</v>
       </c>
       <c r="G7">
-        <v>21.18482824900632</v>
+        <v>20.02702729874941</v>
       </c>
       <c r="H7">
-        <v>8.792459701394471</v>
+        <v>2.245863395477988</v>
       </c>
       <c r="I7">
-        <v>12.87509981935824</v>
+        <v>2.897354810518341</v>
+      </c>
+      <c r="J7">
+        <v>8.676876680344803</v>
       </c>
       <c r="K7">
-        <v>10.78666303429854</v>
+        <v>14.69218522248708</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10.18002424794325</v>
       </c>
       <c r="N7">
-        <v>12.09573296875575</v>
+        <v>8.21440393893268</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.58144916983608</v>
+      </c>
+      <c r="Q7">
+        <v>13.76616034390732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.89413427342007</v>
+        <v>13.31094455732158</v>
       </c>
       <c r="C8">
-        <v>7.728263779213195</v>
+        <v>8.801874477476648</v>
       </c>
       <c r="D8">
-        <v>4.950128804009581</v>
+        <v>5.257559468635708</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>17.40011994692983</v>
+        <v>16.78062946728526</v>
       </c>
       <c r="G8">
-        <v>21.54095082093897</v>
+        <v>20.41114495650243</v>
       </c>
       <c r="H8">
-        <v>8.696721556747669</v>
+        <v>2.027722987592044</v>
       </c>
       <c r="I8">
-        <v>12.64565162256187</v>
+        <v>2.736280865714446</v>
+      </c>
+      <c r="J8">
+        <v>8.643820324749957</v>
       </c>
       <c r="K8">
-        <v>11.71888281656978</v>
+        <v>14.66166597927111</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>10.93283240490002</v>
       </c>
       <c r="N8">
-        <v>11.85140775700163</v>
+        <v>8.666956663528838</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.43149797691601</v>
+      </c>
+      <c r="Q8">
+        <v>13.80108307356492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85361216799342</v>
+        <v>15.36861462332171</v>
       </c>
       <c r="C9">
-        <v>8.847753279099493</v>
+        <v>9.060453409186357</v>
       </c>
       <c r="D9">
-        <v>5.353370414908078</v>
+        <v>5.781710500158448</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>18.17156306897672</v>
+        <v>17.53382319053292</v>
       </c>
       <c r="G9">
-        <v>22.46995170128301</v>
+        <v>21.26867507234737</v>
       </c>
       <c r="H9">
-        <v>8.560830911894588</v>
+        <v>1.630508702207127</v>
       </c>
       <c r="I9">
-        <v>12.28462590856877</v>
+        <v>2.521620444490775</v>
+      </c>
+      <c r="J9">
+        <v>8.606833970264633</v>
       </c>
       <c r="K9">
-        <v>13.36050091019269</v>
+        <v>14.65111971350351</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12.26605646201472</v>
       </c>
       <c r="N9">
-        <v>11.39458224284095</v>
+        <v>9.490521651671608</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.15082467280621</v>
+      </c>
+      <c r="Q9">
+        <v>13.93041920815744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.14889098240473</v>
+        <v>16.64350436689932</v>
       </c>
       <c r="C10">
-        <v>9.593319007234928</v>
+        <v>9.266773722449669</v>
       </c>
       <c r="D10">
-        <v>5.629429230232734</v>
+        <v>6.154205802801555</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>18.82074085158951</v>
+        <v>18.02529488026135</v>
       </c>
       <c r="G10">
-        <v>23.29874740834484</v>
+        <v>21.78654149462768</v>
       </c>
       <c r="H10">
-        <v>8.496725811395816</v>
+        <v>1.749494245984973</v>
       </c>
       <c r="I10">
-        <v>12.08199389576034</v>
+        <v>2.719133403665774</v>
+      </c>
+      <c r="J10">
+        <v>8.5698791712569</v>
       </c>
       <c r="K10">
-        <v>14.45273385641233</v>
+        <v>14.59066105792875</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13.1575260101331</v>
       </c>
       <c r="N10">
-        <v>11.07147221806538</v>
+        <v>9.867782935724758</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.95583816335705</v>
+      </c>
+      <c r="Q10">
+        <v>13.99312713930557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.70729671729048</v>
+        <v>16.6608558365</v>
       </c>
       <c r="C11">
-        <v>9.916011364241447</v>
+        <v>9.639086754487572</v>
       </c>
       <c r="D11">
-        <v>5.750342529499243</v>
+        <v>6.457014175809126</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>19.13387689653522</v>
+        <v>17.59738457789711</v>
       </c>
       <c r="G11">
-        <v>23.70815009623896</v>
+        <v>20.87541605203031</v>
       </c>
       <c r="H11">
-        <v>8.476272969901434</v>
+        <v>2.689850814113405</v>
       </c>
       <c r="I11">
-        <v>12.00542889661732</v>
+        <v>2.771784745231257</v>
+      </c>
+      <c r="J11">
+        <v>8.370066697382844</v>
       </c>
       <c r="K11">
-        <v>14.92503876297048</v>
+        <v>14.01288778302801</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>13.55801483407605</v>
       </c>
       <c r="N11">
-        <v>10.92695615913215</v>
+        <v>8.489455880476562</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.90867715088164</v>
+      </c>
+      <c r="Q11">
+        <v>13.55038467238761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.9143617592011</v>
+        <v>16.43348285867415</v>
       </c>
       <c r="C12">
-        <v>10.03586126830767</v>
+        <v>9.992907498967458</v>
       </c>
       <c r="D12">
-        <v>5.795438662258022</v>
+        <v>6.633758337090784</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>19.25499624728053</v>
+        <v>17.14328810707</v>
       </c>
       <c r="G12">
-        <v>23.86785100929923</v>
+        <v>20.02076572318594</v>
       </c>
       <c r="H12">
-        <v>8.469863042700576</v>
+        <v>4.039498593336763</v>
       </c>
       <c r="I12">
-        <v>11.97886277061241</v>
+        <v>2.773721542320848</v>
+      </c>
+      <c r="J12">
+        <v>8.213069776810002</v>
       </c>
       <c r="K12">
-        <v>15.10037696743402</v>
+        <v>13.56635593483525</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>13.71473082800476</v>
       </c>
       <c r="N12">
-        <v>10.8725662584373</v>
+        <v>7.316784427245121</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.92256638521546</v>
+      </c>
+      <c r="Q12">
+        <v>13.17355355028399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.86996120334219</v>
+        <v>15.97839327068906</v>
       </c>
       <c r="C13">
-        <v>10.01015343156726</v>
+        <v>10.34852794399507</v>
       </c>
       <c r="D13">
-        <v>5.785757425397914</v>
+        <v>6.732781011694577</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>19.22879837840357</v>
+        <v>16.60910509780282</v>
       </c>
       <c r="G13">
-        <v>23.83324888691577</v>
+        <v>19.1030407104969</v>
       </c>
       <c r="H13">
-        <v>8.471182804103734</v>
+        <v>5.497777019854574</v>
       </c>
       <c r="I13">
-        <v>11.98447328385099</v>
+        <v>2.741934345847632</v>
+      </c>
+      <c r="J13">
+        <v>8.07253580419834</v>
       </c>
       <c r="K13">
-        <v>15.06277065888507</v>
+        <v>13.17544930430906</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>13.69838944123926</v>
       </c>
       <c r="N13">
-        <v>10.88426551067222</v>
+        <v>6.25468881358216</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.98092550002894</v>
+      </c>
+      <c r="Q13">
+        <v>12.80552347366504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.72441983987584</v>
+        <v>15.54655666527069</v>
       </c>
       <c r="C14">
-        <v>9.925918381639214</v>
+        <v>10.60768255077167</v>
       </c>
       <c r="D14">
-        <v>5.754066569656129</v>
+        <v>6.76898000489191</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>19.14379066030973</v>
+        <v>16.19176330451986</v>
       </c>
       <c r="G14">
-        <v>23.72119520214802</v>
+        <v>18.42199796666755</v>
       </c>
       <c r="H14">
-        <v>8.475718378272626</v>
+        <v>6.520277289002689</v>
       </c>
       <c r="I14">
-        <v>12.00319355414804</v>
+        <v>2.705989705484078</v>
+      </c>
+      <c r="J14">
+        <v>7.981072170940696</v>
       </c>
       <c r="K14">
-        <v>14.93953423265643</v>
+        <v>12.92887193345938</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>13.6086543786473</v>
       </c>
       <c r="N14">
-        <v>10.92247486703764</v>
+        <v>5.614634540983646</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.04231563899588</v>
+      </c>
+      <c r="Q14">
+        <v>12.54997553286664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.63470097859585</v>
+        <v>15.38586271822412</v>
       </c>
       <c r="C15">
-        <v>9.874017080364363</v>
+        <v>10.66521984441935</v>
       </c>
       <c r="D15">
-        <v>5.73456446327862</v>
+        <v>6.762335532991822</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>19.09205124989394</v>
+        <v>16.06852627872767</v>
       </c>
       <c r="G15">
-        <v>23.6531672014677</v>
+        <v>18.23496561113397</v>
       </c>
       <c r="H15">
-        <v>8.478672930759974</v>
+        <v>6.756845317515499</v>
       </c>
       <c r="I15">
-        <v>12.01498197329992</v>
+        <v>2.691267431596099</v>
+      </c>
+      <c r="J15">
+        <v>7.961362813127455</v>
       </c>
       <c r="K15">
-        <v>14.86359144762368</v>
+        <v>12.87648730477735</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>13.54946294705764</v>
       </c>
       <c r="N15">
-        <v>10.94592225551325</v>
+        <v>5.476906570306935</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.06525650144059</v>
+      </c>
+      <c r="Q15">
+        <v>12.48701355015891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.11178106926237</v>
+        <v>14.91161198483413</v>
       </c>
       <c r="C16">
-        <v>9.571900652811525</v>
+        <v>10.50694394236979</v>
       </c>
       <c r="D16">
-        <v>5.621431566268779</v>
+        <v>6.596192316147991</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>18.80063359682795</v>
+        <v>15.9364484732248</v>
       </c>
       <c r="G16">
-        <v>23.27264506456757</v>
+        <v>18.15371524071439</v>
       </c>
       <c r="H16">
-        <v>8.498244703762523</v>
+        <v>6.545502267149157</v>
       </c>
       <c r="I16">
-        <v>12.08732710001179</v>
+        <v>2.61588281108755</v>
+      </c>
+      <c r="J16">
+        <v>8.002493846022878</v>
       </c>
       <c r="K16">
-        <v>14.42137485377121</v>
+        <v>12.977562683652</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>13.18679539662119</v>
       </c>
       <c r="N16">
-        <v>11.08096467893757</v>
+        <v>5.486095112100722</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.12696237302751</v>
+      </c>
+      <c r="Q16">
+        <v>12.5242517299654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.78312046370501</v>
+        <v>14.78134466805711</v>
       </c>
       <c r="C17">
-        <v>9.382357920996737</v>
+        <v>10.23895749695435</v>
       </c>
       <c r="D17">
-        <v>5.550817591715908</v>
+        <v>6.44639324489509</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>18.62640952013</v>
+        <v>16.06287992222056</v>
       </c>
       <c r="G17">
-        <v>23.04751549128903</v>
+        <v>18.4604592029145</v>
       </c>
       <c r="H17">
-        <v>8.512539819642242</v>
+        <v>5.806674361864215</v>
       </c>
       <c r="I17">
-        <v>12.13583354992393</v>
+        <v>2.577247601712384</v>
+      </c>
+      <c r="J17">
+        <v>8.082714756528937</v>
       </c>
       <c r="K17">
-        <v>14.14381033938031</v>
+        <v>13.18289539779638</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>12.95273453351049</v>
       </c>
       <c r="N17">
-        <v>11.16442719394318</v>
+        <v>5.811642927727457</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.14303660390946</v>
+      </c>
+      <c r="Q17">
+        <v>12.68925341757033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.59117969282321</v>
+        <v>14.95237716333592</v>
       </c>
       <c r="C18">
-        <v>9.271786238930661</v>
+        <v>9.870422795391072</v>
       </c>
       <c r="D18">
-        <v>5.509763982612582</v>
+        <v>6.293154624888377</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>18.52787962209187</v>
+        <v>16.43350127682464</v>
       </c>
       <c r="G18">
-        <v>22.92107523789945</v>
+        <v>19.15190936431292</v>
       </c>
       <c r="H18">
-        <v>8.52157656148386</v>
+        <v>4.550584905131372</v>
       </c>
       <c r="I18">
-        <v>12.16519117645302</v>
+        <v>2.563443028220737</v>
+      </c>
+      <c r="J18">
+        <v>8.208232572906061</v>
       </c>
       <c r="K18">
-        <v>13.98184963084716</v>
+        <v>13.51835711988336</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>12.80759128484367</v>
       </c>
       <c r="N18">
-        <v>11.21266617768884</v>
+        <v>6.567241580812443</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.12604370611614</v>
+      </c>
+      <c r="Q18">
+        <v>12.98968232258283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.52569189534372</v>
+        <v>15.32757057718998</v>
       </c>
       <c r="C19">
-        <v>9.234081466612983</v>
+        <v>9.526227318707786</v>
       </c>
       <c r="D19">
-        <v>5.495789314526928</v>
+        <v>6.157533245141017</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>18.49480805302329</v>
+        <v>16.93873821004219</v>
       </c>
       <c r="G19">
-        <v>22.87878758776958</v>
+        <v>20.04834775807127</v>
       </c>
       <c r="H19">
-        <v>8.524773678701751</v>
+        <v>3.05601481635516</v>
       </c>
       <c r="I19">
-        <v>12.17537620753069</v>
+        <v>2.58404660871588</v>
+      </c>
+      <c r="J19">
+        <v>8.353808677714511</v>
       </c>
       <c r="K19">
-        <v>13.9266148235679</v>
+        <v>13.92756835040916</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>12.74810949960374</v>
       </c>
       <c r="N19">
-        <v>11.22903977199893</v>
+        <v>7.723595070764397</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.09394142010015</v>
+      </c>
+      <c r="Q19">
+        <v>13.35809100426934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.818407198113</v>
+        <v>16.27820629423608</v>
       </c>
       <c r="C20">
-        <v>9.402695521339616</v>
+        <v>9.226768081786219</v>
       </c>
       <c r="D20">
-        <v>5.558380088751831</v>
+        <v>6.069184212413706</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>18.64478231948626</v>
+        <v>17.84423999689707</v>
       </c>
       <c r="G20">
-        <v>23.07116527673873</v>
+        <v>21.55887751200902</v>
       </c>
       <c r="H20">
-        <v>8.510933185552059</v>
+        <v>1.678703330792903</v>
       </c>
       <c r="I20">
-        <v>12.13051777365861</v>
+        <v>2.680119174063824</v>
+      </c>
+      <c r="J20">
+        <v>8.56421944556674</v>
       </c>
       <c r="K20">
-        <v>14.17359682601212</v>
+        <v>14.56149414989692</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>12.9308578400924</v>
       </c>
       <c r="N20">
-        <v>11.15551843577679</v>
+        <v>9.760884587469834</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.00779611255345</v>
+      </c>
+      <c r="Q20">
+        <v>13.93785439776899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.76728769545797</v>
+        <v>17.30650920654844</v>
       </c>
       <c r="C21">
-        <v>9.950723754802898</v>
+        <v>9.345056182763791</v>
       </c>
       <c r="D21">
-        <v>5.76339384239759</v>
+        <v>6.318523230368815</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>19.1686907033295</v>
+        <v>18.35022149852145</v>
       </c>
       <c r="G21">
-        <v>23.75398135574615</v>
+        <v>22.18375302859912</v>
       </c>
       <c r="H21">
-        <v>8.474349260215289</v>
+        <v>1.886484179965338</v>
       </c>
       <c r="I21">
-        <v>11.99762757164824</v>
+        <v>2.833762717322311</v>
+      </c>
+      <c r="J21">
+        <v>8.575012987560877</v>
       </c>
       <c r="K21">
-        <v>14.97582693879408</v>
+        <v>14.62638099365721</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>13.58318664475599</v>
       </c>
       <c r="N21">
-        <v>10.91124291658799</v>
+        <v>10.32305682149098</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.85614968547089</v>
+      </c>
+      <c r="Q21">
+        <v>14.08435155515977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.36186258663362</v>
+        <v>17.93171303183635</v>
       </c>
       <c r="C22">
-        <v>10.29522631749664</v>
+        <v>9.427892847592743</v>
       </c>
       <c r="D22">
-        <v>5.893346749603529</v>
+        <v>6.479958950673807</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>19.52589663982265</v>
+        <v>18.66467390950801</v>
       </c>
       <c r="G22">
-        <v>24.22745023767151</v>
+        <v>22.56404228913355</v>
       </c>
       <c r="H22">
-        <v>8.458262231549524</v>
+        <v>2.014319683497203</v>
       </c>
       <c r="I22">
-        <v>11.92501708782639</v>
+        <v>2.925152128775003</v>
+      </c>
+      <c r="J22">
+        <v>8.579791758527922</v>
       </c>
       <c r="K22">
-        <v>15.47966426881676</v>
+        <v>14.65731937817609</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>13.99307224510162</v>
       </c>
       <c r="N22">
-        <v>10.75353885673991</v>
+        <v>10.58722395323969</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.75923458913491</v>
+      </c>
+      <c r="Q22">
+        <v>14.17236551902687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.04685233268175</v>
+        <v>17.61452256241823</v>
       </c>
       <c r="C23">
-        <v>10.11260108771163</v>
+        <v>9.379131916936036</v>
       </c>
       <c r="D23">
-        <v>5.824363483084807</v>
+        <v>6.390731283815622</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>19.33390282412254</v>
+        <v>18.51408654527748</v>
       </c>
       <c r="G23">
-        <v>23.97226142827177</v>
+        <v>22.39145266977264</v>
       </c>
       <c r="H23">
-        <v>8.466104255477342</v>
+        <v>1.947193566313175</v>
       </c>
       <c r="I23">
-        <v>11.96240456909534</v>
+        <v>2.871878290241347</v>
+      </c>
+      <c r="J23">
+        <v>8.582109045003605</v>
       </c>
       <c r="K23">
-        <v>15.21262203653627</v>
+        <v>14.65603774498863</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>13.77543649120374</v>
       </c>
       <c r="N23">
-        <v>10.83753729905191</v>
+        <v>10.44749966809091</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.81024091626222</v>
+      </c>
+      <c r="Q23">
+        <v>14.13786598108165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.80246337992017</v>
+        <v>16.33134109190864</v>
       </c>
       <c r="C24">
-        <v>9.393505880696553</v>
+        <v>9.199269504808125</v>
       </c>
       <c r="D24">
-        <v>5.554962504794658</v>
+        <v>6.04677657660533</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>18.63647088625548</v>
+        <v>17.92158823131867</v>
       </c>
       <c r="G24">
-        <v>23.06046389751696</v>
+        <v>21.69969300800696</v>
       </c>
       <c r="H24">
-        <v>8.511657002268683</v>
+        <v>1.685418318507919</v>
       </c>
       <c r="I24">
-        <v>12.13291646911089</v>
+        <v>2.673575671659926</v>
+      </c>
+      <c r="J24">
+        <v>8.588269073266003</v>
       </c>
       <c r="K24">
-        <v>14.16013778597104</v>
+        <v>14.63392805752835</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>12.91799521447648</v>
       </c>
       <c r="N24">
-        <v>11.15954528874231</v>
+        <v>9.900192401684476</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.00723871509317</v>
+      </c>
+      <c r="Q24">
+        <v>13.99766849865682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.34902562392303</v>
+        <v>14.81792809090161</v>
       </c>
       <c r="C25">
-        <v>8.558467989848594</v>
+        <v>8.998692369416402</v>
       </c>
       <c r="D25">
-        <v>5.247721613788903</v>
+        <v>5.6510812741346</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>17.94839927399702</v>
+        <v>17.29807017306173</v>
       </c>
       <c r="G25">
-        <v>22.1932371342558</v>
+        <v>20.98109020834382</v>
       </c>
       <c r="H25">
-        <v>8.591628275600501</v>
+        <v>1.736040505290639</v>
       </c>
       <c r="I25">
-        <v>12.37194446424069</v>
+        <v>2.531746909575719</v>
+      </c>
+      <c r="J25">
+        <v>8.606681775898553</v>
       </c>
       <c r="K25">
-        <v>12.9364180270822</v>
+        <v>14.62697214602601</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>11.9216879977428</v>
       </c>
       <c r="N25">
-        <v>11.51588729135156</v>
+        <v>9.274237063844787</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.22574325108904</v>
+      </c>
+      <c r="Q25">
+        <v>13.87053897000657</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.63226011140165</v>
+        <v>13.41583978912444</v>
       </c>
       <c r="C2">
-        <v>8.834518911505388</v>
+        <v>8.516100400963129</v>
       </c>
       <c r="D2">
-        <v>5.329227444391826</v>
+        <v>5.374333392891669</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.90118427783443</v>
+        <v>16.53398437818041</v>
       </c>
       <c r="G2">
-        <v>20.55924289812176</v>
+        <v>19.25910372326272</v>
       </c>
       <c r="H2">
-        <v>1.969607798742456</v>
+        <v>1.907373051027412</v>
       </c>
       <c r="I2">
-        <v>2.681333433300684</v>
+        <v>2.608720657606115</v>
       </c>
       <c r="J2">
-        <v>8.642423525692518</v>
+        <v>8.971865218978198</v>
       </c>
       <c r="K2">
-        <v>14.67409168334894</v>
+        <v>14.24031491073322</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.10987424776103</v>
       </c>
       <c r="M2">
-        <v>11.1267380997608</v>
+        <v>8.963117659021002</v>
       </c>
       <c r="N2">
-        <v>8.786102399316253</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.137844458225</v>
       </c>
       <c r="P2">
-        <v>12.39171692438836</v>
+        <v>8.824824850856476</v>
       </c>
       <c r="Q2">
-        <v>13.8293404982468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.32439337417322</v>
+      </c>
+      <c r="S2">
+        <v>13.54213771279049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.73579019489346</v>
+        <v>12.56578591026674</v>
       </c>
       <c r="C3">
-        <v>8.725365667901789</v>
+        <v>8.367524966408405</v>
       </c>
       <c r="D3">
-        <v>5.104325721905212</v>
+        <v>5.13406916583665</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.61709020587369</v>
+        <v>16.28810197402562</v>
       </c>
       <c r="G3">
-        <v>20.24405512604584</v>
+        <v>19.02456930221338</v>
       </c>
       <c r="H3">
-        <v>2.137282834249739</v>
+        <v>2.065082425762553</v>
       </c>
       <c r="I3">
-        <v>2.806342092996953</v>
+        <v>2.720999243026307</v>
       </c>
       <c r="J3">
-        <v>8.664975726231676</v>
+        <v>8.976079637642384</v>
       </c>
       <c r="K3">
-        <v>14.69180485300694</v>
+        <v>14.28413508950654</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.23737133426116</v>
       </c>
       <c r="M3">
-        <v>10.55206943267947</v>
+        <v>8.923935077729711</v>
       </c>
       <c r="N3">
-        <v>8.437829502962405</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.56493896912086</v>
       </c>
       <c r="P3">
-        <v>12.50804201310209</v>
+        <v>8.484135463382934</v>
       </c>
       <c r="Q3">
-        <v>13.79436694098679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.43004227049758</v>
+      </c>
+      <c r="S3">
+        <v>13.53142338095666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.16093030506804</v>
+        <v>12.00967990769378</v>
       </c>
       <c r="C4">
-        <v>8.656448370257435</v>
+        <v>8.274717411963248</v>
       </c>
       <c r="D4">
-        <v>4.960575482706108</v>
+        <v>4.980452740179862</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.44758580381802</v>
+        <v>16.14136112040209</v>
       </c>
       <c r="G4">
-        <v>20.05748528626483</v>
+        <v>18.88917829676084</v>
       </c>
       <c r="H4">
-        <v>2.244337256352158</v>
+        <v>2.165813662923808</v>
       </c>
       <c r="I4">
-        <v>2.886986468351203</v>
+        <v>2.793770103643645</v>
       </c>
       <c r="J4">
-        <v>8.681262206167975</v>
+        <v>8.979661551706629</v>
       </c>
       <c r="K4">
-        <v>14.70575711513762</v>
+        <v>14.31317816744959</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.31733861424721</v>
       </c>
       <c r="M4">
-        <v>10.18166861889134</v>
+        <v>8.917622807406509</v>
       </c>
       <c r="N4">
-        <v>8.216245099246063</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.19573672644224</v>
       </c>
       <c r="P4">
-        <v>12.58118844849453</v>
+        <v>8.267638153231639</v>
       </c>
       <c r="Q4">
-        <v>13.77784448749041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.49684344465339</v>
+      </c>
+      <c r="S4">
+        <v>13.52896858140777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9172259734495</v>
+        <v>11.76949591778441</v>
       </c>
       <c r="C5">
-        <v>8.628844896404724</v>
+        <v>8.238097870224657</v>
       </c>
       <c r="D5">
-        <v>4.901727712705792</v>
+        <v>4.917507968823005</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.37477895021841</v>
+        <v>16.07761411180683</v>
       </c>
       <c r="G5">
-        <v>19.97441910468378</v>
+        <v>18.82716487221368</v>
       </c>
       <c r="H5">
-        <v>2.289287080306836</v>
+        <v>2.208131044519916</v>
       </c>
       <c r="I5">
-        <v>2.92373019168792</v>
+        <v>2.827796658571025</v>
       </c>
       <c r="J5">
-        <v>8.687161587135479</v>
+        <v>8.980018333518723</v>
       </c>
       <c r="K5">
-        <v>14.70812005748728</v>
+        <v>14.32153057603602</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.34655077313484</v>
       </c>
       <c r="M5">
-        <v>10.02653231186799</v>
+        <v>8.917332855258858</v>
       </c>
       <c r="N5">
-        <v>8.123903528033349</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.04112891708938</v>
       </c>
       <c r="P5">
-        <v>12.61137118554615</v>
+        <v>8.177480988693029</v>
       </c>
       <c r="Q5">
-        <v>13.76886259667293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.52455112220223</v>
+      </c>
+      <c r="S5">
+        <v>13.52552383401066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.87014063123324</v>
+        <v>11.72304032498477</v>
       </c>
       <c r="C6">
-        <v>8.625441847244119</v>
+        <v>8.233981240313348</v>
       </c>
       <c r="D6">
-        <v>4.893239788440772</v>
+        <v>4.908366260076501</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.35661368648798</v>
+        <v>16.06091825146343</v>
       </c>
       <c r="G6">
-        <v>19.9499381661973</v>
+        <v>18.80600571892136</v>
       </c>
       <c r="H6">
-        <v>2.297159098441891</v>
+        <v>2.215558647885868</v>
       </c>
       <c r="I6">
-        <v>2.933626667791633</v>
+        <v>2.83790881246226</v>
       </c>
       <c r="J6">
-        <v>8.686539893121008</v>
+        <v>8.978441672609895</v>
       </c>
       <c r="K6">
-        <v>14.70357039992105</v>
+        <v>14.31805300205288</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.34678954025192</v>
       </c>
       <c r="M6">
-        <v>10.00067289521589</v>
+        <v>8.914860945889828</v>
       </c>
       <c r="N6">
-        <v>8.108233177562349</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.01536751021574</v>
       </c>
       <c r="P6">
-        <v>12.61633830391614</v>
+        <v>8.162181499087323</v>
       </c>
       <c r="Q6">
-        <v>13.76320216156879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.52918578661293</v>
+      </c>
+      <c r="S6">
+        <v>13.52078818057197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14136402308419</v>
+        <v>11.98768006352535</v>
       </c>
       <c r="C7">
-        <v>8.65941132682625</v>
+        <v>8.277785033825143</v>
       </c>
       <c r="D7">
-        <v>4.963474992173504</v>
+        <v>4.985900978478142</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.42988680567154</v>
+        <v>16.11305051321346</v>
       </c>
       <c r="G7">
-        <v>20.02702729874941</v>
+        <v>18.93884487117128</v>
       </c>
       <c r="H7">
-        <v>2.245863395477988</v>
+        <v>2.167627252917306</v>
       </c>
       <c r="I7">
-        <v>2.897354810518341</v>
+        <v>2.806263412549448</v>
       </c>
       <c r="J7">
-        <v>8.676876680344803</v>
+        <v>8.944143501783282</v>
       </c>
       <c r="K7">
-        <v>14.69218522248708</v>
+        <v>14.29535960507281</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.30112850198526</v>
       </c>
       <c r="M7">
-        <v>10.18002424794325</v>
+        <v>8.907208963325159</v>
       </c>
       <c r="N7">
-        <v>8.21440393893268</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.19059855785806</v>
       </c>
       <c r="P7">
-        <v>12.58144916983608</v>
+        <v>8.265610837580855</v>
       </c>
       <c r="Q7">
-        <v>13.76616034390732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.4973869971668</v>
+      </c>
+      <c r="S7">
+        <v>13.51018581669519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31094455732158</v>
+        <v>13.10195843351035</v>
       </c>
       <c r="C8">
-        <v>8.801874477476648</v>
+        <v>8.466490220042401</v>
       </c>
       <c r="D8">
-        <v>5.257559468635708</v>
+        <v>5.30556809937919</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.78062946728526</v>
+        <v>16.39193780104728</v>
       </c>
       <c r="G8">
-        <v>20.41114495650243</v>
+        <v>19.40199531779134</v>
       </c>
       <c r="H8">
-        <v>2.027722987592044</v>
+        <v>1.963106729759744</v>
       </c>
       <c r="I8">
-        <v>2.736280865714446</v>
+        <v>2.662787830905692</v>
       </c>
       <c r="J8">
-        <v>8.643820324749957</v>
+        <v>8.866229990578663</v>
       </c>
       <c r="K8">
-        <v>14.66166597927111</v>
+        <v>14.22247636714226</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.12572396543025</v>
       </c>
       <c r="M8">
-        <v>10.93283240490002</v>
+        <v>8.924047964744499</v>
       </c>
       <c r="N8">
-        <v>8.666956663528838</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.93355649686982</v>
       </c>
       <c r="P8">
-        <v>12.43149797691601</v>
+        <v>8.707564084353884</v>
       </c>
       <c r="Q8">
-        <v>13.80108307356492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.36140842438126</v>
+      </c>
+      <c r="S8">
+        <v>13.49869638514241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.36861462332171</v>
+        <v>15.05254896352065</v>
       </c>
       <c r="C9">
-        <v>9.060453409186357</v>
+        <v>8.820632951114511</v>
       </c>
       <c r="D9">
-        <v>5.781710500158448</v>
+        <v>5.866786643242892</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.53382319053292</v>
+        <v>17.03908367664692</v>
       </c>
       <c r="G9">
-        <v>21.26867507234737</v>
+        <v>20.132109351226</v>
       </c>
       <c r="H9">
-        <v>1.630508702207127</v>
+        <v>1.589843304838379</v>
       </c>
       <c r="I9">
-        <v>2.521620444490775</v>
+        <v>2.571984260494308</v>
       </c>
       <c r="J9">
-        <v>8.606833970264633</v>
+        <v>8.839239670193487</v>
       </c>
       <c r="K9">
-        <v>14.65111971350351</v>
+        <v>14.13730932763519</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.82999465413485</v>
       </c>
       <c r="M9">
-        <v>12.26605646201472</v>
+        <v>9.122258062325271</v>
       </c>
       <c r="N9">
-        <v>9.490521651671608</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.26114676104687</v>
       </c>
       <c r="P9">
-        <v>12.15082467280621</v>
+        <v>9.514445068408159</v>
       </c>
       <c r="Q9">
-        <v>13.93041920815744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.10915674590881</v>
+      </c>
+      <c r="S9">
+        <v>13.55675297242714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.64350436689932</v>
+        <v>16.25041166217114</v>
       </c>
       <c r="C10">
-        <v>9.266773722449669</v>
+        <v>9.098016456540181</v>
       </c>
       <c r="D10">
-        <v>6.154205802801555</v>
+        <v>6.275381399763959</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.02529488026135</v>
+        <v>17.40118346735446</v>
       </c>
       <c r="G10">
-        <v>21.78654149462768</v>
+        <v>21.01702123568638</v>
       </c>
       <c r="H10">
-        <v>1.749494245984973</v>
+        <v>1.771699790226006</v>
       </c>
       <c r="I10">
-        <v>2.719133403665774</v>
+        <v>2.749358497599841</v>
       </c>
       <c r="J10">
-        <v>8.5698791712569</v>
+        <v>8.63808594805819</v>
       </c>
       <c r="K10">
-        <v>14.59066105792875</v>
+        <v>14.00040168255952</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.56073074532637</v>
       </c>
       <c r="M10">
-        <v>13.1575260101331</v>
+        <v>9.274832395200717</v>
       </c>
       <c r="N10">
-        <v>9.867782935724758</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.13231264356431</v>
       </c>
       <c r="P10">
-        <v>11.95583816335705</v>
+        <v>9.880867807614296</v>
       </c>
       <c r="Q10">
-        <v>13.99312713930557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.94051383748733</v>
+      </c>
+      <c r="S10">
+        <v>13.52834886801535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.6608558365</v>
+        <v>16.25945890412619</v>
       </c>
       <c r="C11">
-        <v>9.639086754487572</v>
+        <v>9.552876173380151</v>
       </c>
       <c r="D11">
-        <v>6.457014175809126</v>
+        <v>6.606174607251669</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.59738457789711</v>
+        <v>16.87694436787959</v>
       </c>
       <c r="G11">
-        <v>20.87541605203031</v>
+        <v>21.11098310858568</v>
       </c>
       <c r="H11">
-        <v>2.689850814113405</v>
+        <v>2.699894078735312</v>
       </c>
       <c r="I11">
-        <v>2.771784745231257</v>
+        <v>2.79672644013318</v>
       </c>
       <c r="J11">
-        <v>8.370066697382844</v>
+        <v>8.163538520707212</v>
       </c>
       <c r="K11">
-        <v>14.01288778302801</v>
+        <v>13.42382799154874</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.09859926532498</v>
       </c>
       <c r="M11">
-        <v>13.55801483407605</v>
+        <v>8.902221291814504</v>
       </c>
       <c r="N11">
-        <v>8.489455880476562</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.4952571714919</v>
       </c>
       <c r="P11">
-        <v>11.90867715088164</v>
+        <v>8.499596138620356</v>
       </c>
       <c r="Q11">
-        <v>13.55038467238761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.92637500384061</v>
+      </c>
+      <c r="S11">
+        <v>13.02712503177053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.43348285867415</v>
+        <v>16.04827398227251</v>
       </c>
       <c r="C12">
-        <v>9.992907498967458</v>
+        <v>9.94314675950257</v>
       </c>
       <c r="D12">
-        <v>6.633758337090784</v>
+        <v>6.791451544990372</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.14328810707</v>
+        <v>16.40527076225621</v>
       </c>
       <c r="G12">
-        <v>20.02076572318594</v>
+        <v>20.7528668738163</v>
       </c>
       <c r="H12">
-        <v>4.039498593336763</v>
+        <v>4.033985846663179</v>
       </c>
       <c r="I12">
-        <v>2.773721542320848</v>
+        <v>2.797163252748689</v>
       </c>
       <c r="J12">
-        <v>8.213069776810002</v>
+        <v>7.935467875620744</v>
       </c>
       <c r="K12">
-        <v>13.56635593483525</v>
+        <v>13.01374659316009</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.81061738410512</v>
       </c>
       <c r="M12">
-        <v>13.71473082800476</v>
+        <v>8.57953642302283</v>
       </c>
       <c r="N12">
-        <v>7.316784427245121</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.63410536017969</v>
       </c>
       <c r="P12">
-        <v>11.92256638521546</v>
+        <v>7.327004450748004</v>
       </c>
       <c r="Q12">
-        <v>13.17355355028399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.96059475385271</v>
+      </c>
+      <c r="S12">
+        <v>12.64814783560969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97839327068906</v>
+        <v>15.6348373423056</v>
       </c>
       <c r="C13">
-        <v>10.34852794399507</v>
+        <v>10.32008325813327</v>
       </c>
       <c r="D13">
-        <v>6.732781011694577</v>
+        <v>6.878751274411032</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.60910509780282</v>
+        <v>15.93800708535215</v>
       </c>
       <c r="G13">
-        <v>19.1030407104969</v>
+        <v>19.76898748449442</v>
       </c>
       <c r="H13">
-        <v>5.497777019854574</v>
+        <v>5.49265278178637</v>
       </c>
       <c r="I13">
-        <v>2.741934345847632</v>
+        <v>2.768935300716444</v>
       </c>
       <c r="J13">
-        <v>8.07253580419834</v>
+        <v>7.881824328730162</v>
       </c>
       <c r="K13">
-        <v>13.17544930430906</v>
+        <v>12.69437813294539</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.61443087433933</v>
       </c>
       <c r="M13">
-        <v>13.69838944123926</v>
+        <v>8.27440594178684</v>
       </c>
       <c r="N13">
-        <v>6.25468881358216</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.62077438322674</v>
       </c>
       <c r="P13">
-        <v>11.98092550002894</v>
+        <v>6.268377008879569</v>
       </c>
       <c r="Q13">
-        <v>12.80552347366504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.02558487680484</v>
+      </c>
+      <c r="S13">
+        <v>12.33685568260326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.54655666527069</v>
+        <v>15.24409844605284</v>
       </c>
       <c r="C14">
-        <v>10.60768255077167</v>
+        <v>10.58902071766932</v>
       </c>
       <c r="D14">
-        <v>6.76898000489191</v>
+        <v>6.897462124530966</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.19176330451986</v>
+        <v>15.60425567759589</v>
       </c>
       <c r="G14">
-        <v>18.42199796666755</v>
+        <v>18.79881580109997</v>
       </c>
       <c r="H14">
-        <v>6.520277289002689</v>
+        <v>6.514792152788128</v>
       </c>
       <c r="I14">
-        <v>2.705989705484078</v>
+        <v>2.738075408394541</v>
       </c>
       <c r="J14">
-        <v>7.981072170940696</v>
+        <v>7.908593344688441</v>
       </c>
       <c r="K14">
-        <v>12.92887193345938</v>
+        <v>12.50962507509878</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.51165716579891</v>
       </c>
       <c r="M14">
-        <v>13.6086543786473</v>
+        <v>8.071822812805904</v>
       </c>
       <c r="N14">
-        <v>5.614634540983646</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.54237984443728</v>
       </c>
       <c r="P14">
-        <v>12.04231563899588</v>
+        <v>5.632704212543945</v>
       </c>
       <c r="Q14">
-        <v>12.54997553286664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.08398040904401</v>
+      </c>
+      <c r="S14">
+        <v>12.14493560174447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38586271822412</v>
+        <v>15.09863952180444</v>
       </c>
       <c r="C15">
-        <v>10.66521984441935</v>
+        <v>10.64926521541073</v>
       </c>
       <c r="D15">
-        <v>6.762335532991822</v>
+        <v>6.882570921562513</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.06852627872767</v>
+        <v>15.5169717179013</v>
       </c>
       <c r="G15">
-        <v>18.23496561113397</v>
+        <v>18.43982697392756</v>
       </c>
       <c r="H15">
-        <v>6.756845317515499</v>
+        <v>6.751007134179248</v>
       </c>
       <c r="I15">
-        <v>2.691267431596099</v>
+        <v>2.726225636624241</v>
       </c>
       <c r="J15">
-        <v>7.961362813127455</v>
+        <v>7.943228569861651</v>
       </c>
       <c r="K15">
-        <v>12.87648730477735</v>
+        <v>12.47738087612971</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.49808072176123</v>
       </c>
       <c r="M15">
-        <v>13.54946294705764</v>
+        <v>8.024449446516281</v>
       </c>
       <c r="N15">
-        <v>5.476906570306935</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.48997543842378</v>
       </c>
       <c r="P15">
-        <v>12.06525650144059</v>
+        <v>5.496908073388469</v>
       </c>
       <c r="Q15">
-        <v>12.48701355015891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.1031787668868</v>
+      </c>
+      <c r="S15">
+        <v>12.10753015765765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.91161198483413</v>
+        <v>14.66927501750624</v>
       </c>
       <c r="C16">
-        <v>10.50694394236979</v>
+        <v>10.48980800302496</v>
       </c>
       <c r="D16">
-        <v>6.596192316147991</v>
+        <v>6.682841311820901</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.9364484732248</v>
+        <v>15.51401656478526</v>
       </c>
       <c r="G16">
-        <v>18.15371524071439</v>
+        <v>17.54127814384304</v>
       </c>
       <c r="H16">
-        <v>6.545502267149157</v>
+        <v>6.536715208236911</v>
       </c>
       <c r="I16">
-        <v>2.61588281108755</v>
+        <v>2.661932171183738</v>
       </c>
       <c r="J16">
-        <v>8.002493846022878</v>
+        <v>8.214036488641455</v>
       </c>
       <c r="K16">
-        <v>12.977562683652</v>
+        <v>12.62108768147042</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.62548314697215</v>
       </c>
       <c r="M16">
-        <v>13.18679539662119</v>
+        <v>8.064913334729271</v>
       </c>
       <c r="N16">
-        <v>5.486095112100722</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.16092024386321</v>
       </c>
       <c r="P16">
-        <v>12.12696237302751</v>
+        <v>5.513653741322967</v>
       </c>
       <c r="Q16">
-        <v>12.5242517299654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.14001990734941</v>
+      </c>
+      <c r="S16">
+        <v>12.228047011006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.78134466805711</v>
+        <v>14.54780640845402</v>
       </c>
       <c r="C17">
-        <v>10.23895749695435</v>
+        <v>10.20857179604178</v>
       </c>
       <c r="D17">
-        <v>6.44639324489509</v>
+        <v>6.52047098713283</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.06287992222056</v>
+        <v>15.68008642016315</v>
       </c>
       <c r="G17">
-        <v>18.4604592029145</v>
+        <v>17.49187638698301</v>
       </c>
       <c r="H17">
-        <v>5.806674361864215</v>
+        <v>5.795126938790491</v>
       </c>
       <c r="I17">
-        <v>2.577247601712384</v>
+        <v>2.628810880157007</v>
       </c>
       <c r="J17">
-        <v>8.082714756528937</v>
+        <v>8.392404404990984</v>
       </c>
       <c r="K17">
-        <v>13.18289539779638</v>
+        <v>12.82540743371407</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.78529175070838</v>
       </c>
       <c r="M17">
-        <v>12.95273453351049</v>
+        <v>8.193434587086776</v>
       </c>
       <c r="N17">
-        <v>5.811642927727457</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.94217969707034</v>
       </c>
       <c r="P17">
-        <v>12.14303660390946</v>
+        <v>5.841806418081094</v>
       </c>
       <c r="Q17">
-        <v>12.68925341757033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.14241402849416</v>
+      </c>
+      <c r="S17">
+        <v>12.41504517185933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.95237716333592</v>
+        <v>14.70135380501558</v>
       </c>
       <c r="C18">
-        <v>9.870422795391072</v>
+        <v>9.813395441666909</v>
       </c>
       <c r="D18">
-        <v>6.293154624888377</v>
+        <v>6.36645109977524</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.43350127682464</v>
+        <v>16.04016798434654</v>
       </c>
       <c r="G18">
-        <v>19.15190936431292</v>
+        <v>18.00135510638919</v>
       </c>
       <c r="H18">
-        <v>4.550584905131372</v>
+        <v>4.535442504914884</v>
       </c>
       <c r="I18">
-        <v>2.563443028220737</v>
+        <v>2.615350935450456</v>
       </c>
       <c r="J18">
-        <v>8.208232572906061</v>
+        <v>8.548989638580728</v>
       </c>
       <c r="K18">
-        <v>13.51835711988336</v>
+        <v>13.129620474652</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.01202465965488</v>
       </c>
       <c r="M18">
-        <v>12.80759128484367</v>
+        <v>8.424097711206253</v>
       </c>
       <c r="N18">
-        <v>6.567241580812443</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.80418354228349</v>
       </c>
       <c r="P18">
-        <v>12.12604370611614</v>
+        <v>6.595984209572612</v>
       </c>
       <c r="Q18">
-        <v>12.98968232258283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.11608316149207</v>
+      </c>
+      <c r="S18">
+        <v>12.70266286472045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.32757057718998</v>
+        <v>15.04139053906659</v>
       </c>
       <c r="C19">
-        <v>9.526227318707786</v>
+        <v>9.429489760041481</v>
       </c>
       <c r="D19">
-        <v>6.157533245141017</v>
+        <v>6.237317941180875</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.93873821004219</v>
+        <v>16.50458909202347</v>
       </c>
       <c r="G19">
-        <v>20.04834775807127</v>
+        <v>18.7964252005896</v>
       </c>
       <c r="H19">
-        <v>3.05601481635516</v>
+        <v>3.035251842222037</v>
       </c>
       <c r="I19">
-        <v>2.58404660871588</v>
+        <v>2.634624175884512</v>
       </c>
       <c r="J19">
-        <v>8.353808677714511</v>
+        <v>8.688391556758461</v>
       </c>
       <c r="K19">
-        <v>13.92756835040916</v>
+        <v>13.48760875370149</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.27292337381811</v>
       </c>
       <c r="M19">
-        <v>12.74810949960374</v>
+        <v>8.714120176973772</v>
       </c>
       <c r="N19">
-        <v>7.723595070764397</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.74726406588423</v>
       </c>
       <c r="P19">
-        <v>12.09394142010015</v>
+        <v>7.748456141556803</v>
       </c>
       <c r="Q19">
-        <v>13.35809100426934</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.07667201681489</v>
+      </c>
+      <c r="S19">
+        <v>13.03703929618943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.27820629423608</v>
+        <v>15.91226316312429</v>
       </c>
       <c r="C20">
-        <v>9.226768081786219</v>
+        <v>9.055125258191172</v>
       </c>
       <c r="D20">
-        <v>6.069184212413706</v>
+        <v>6.173566732685345</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.84423999689707</v>
+        <v>17.28977767017516</v>
       </c>
       <c r="G20">
-        <v>21.55887751200902</v>
+        <v>20.41841285083064</v>
       </c>
       <c r="H20">
-        <v>1.678703330792903</v>
+        <v>1.706397070479331</v>
       </c>
       <c r="I20">
-        <v>2.680119174063824</v>
+        <v>2.720261546570478</v>
       </c>
       <c r="J20">
-        <v>8.56421944556674</v>
+        <v>8.779792884560365</v>
       </c>
       <c r="K20">
-        <v>14.56149414989692</v>
+        <v>14.00969891472074</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.61176535788885</v>
       </c>
       <c r="M20">
-        <v>12.9308578400924</v>
+        <v>9.208867966417875</v>
       </c>
       <c r="N20">
-        <v>9.760884587469834</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.92114286996797</v>
       </c>
       <c r="P20">
-        <v>12.00779611255345</v>
+        <v>9.777294687447883</v>
       </c>
       <c r="Q20">
-        <v>13.93785439776899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.98516258433222</v>
+      </c>
+      <c r="S20">
+        <v>13.52338905951107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.30650920654844</v>
+        <v>16.83877346004899</v>
       </c>
       <c r="C21">
-        <v>9.345056182763791</v>
+        <v>9.175990146539105</v>
       </c>
       <c r="D21">
-        <v>6.318523230368815</v>
+        <v>6.490921609787496</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.35022149852145</v>
+        <v>17.50164594018371</v>
       </c>
       <c r="G21">
-        <v>22.18375302859912</v>
+        <v>22.75737075560947</v>
       </c>
       <c r="H21">
-        <v>1.886484179965338</v>
+        <v>1.896174535989633</v>
       </c>
       <c r="I21">
-        <v>2.833762717322311</v>
+        <v>2.852143842472778</v>
       </c>
       <c r="J21">
-        <v>8.575012987560877</v>
+        <v>8.171732647651629</v>
       </c>
       <c r="K21">
-        <v>14.62638099365721</v>
+        <v>13.91680183881524</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.41938180838689</v>
       </c>
       <c r="M21">
-        <v>13.58318664475599</v>
+        <v>9.351385258591245</v>
       </c>
       <c r="N21">
-        <v>10.32305682149098</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.50636084407179</v>
       </c>
       <c r="P21">
-        <v>11.85614968547089</v>
+        <v>10.32856778075866</v>
       </c>
       <c r="Q21">
-        <v>14.08435155515977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.86045870145878</v>
+      </c>
+      <c r="S21">
+        <v>13.45613954941698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.93171303183635</v>
+        <v>17.40045251561517</v>
       </c>
       <c r="C22">
-        <v>9.427892847592743</v>
+        <v>9.261911205049215</v>
       </c>
       <c r="D22">
-        <v>6.479958950673807</v>
+        <v>6.697613029876045</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.66467390950801</v>
+        <v>17.61435770853253</v>
       </c>
       <c r="G22">
-        <v>22.56404228913355</v>
+        <v>24.38276095529797</v>
       </c>
       <c r="H22">
-        <v>2.014319683497203</v>
+        <v>2.012632927768025</v>
       </c>
       <c r="I22">
-        <v>2.925152128775003</v>
+        <v>2.9285287283057</v>
       </c>
       <c r="J22">
-        <v>8.579791758527922</v>
+        <v>7.81440217349503</v>
       </c>
       <c r="K22">
-        <v>14.65731937817609</v>
+        <v>13.83919114935717</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.28474219330863</v>
       </c>
       <c r="M22">
-        <v>13.99307224510162</v>
+        <v>9.438575550375699</v>
       </c>
       <c r="N22">
-        <v>10.58722395323969</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.87057457683762</v>
       </c>
       <c r="P22">
-        <v>11.75923458913491</v>
+        <v>10.58628055433496</v>
       </c>
       <c r="Q22">
-        <v>14.17236551902687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.78364400453741</v>
+      </c>
+      <c r="S22">
+        <v>13.39439145875092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.61452256241823</v>
+        <v>17.12206588068638</v>
       </c>
       <c r="C23">
-        <v>9.379131916936036</v>
+        <v>9.213021777707821</v>
       </c>
       <c r="D23">
-        <v>6.390731283815622</v>
+        <v>6.578758460133489</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.51408654527748</v>
+        <v>17.59704227073847</v>
       </c>
       <c r="G23">
-        <v>22.39145266977264</v>
+        <v>23.34187299491377</v>
       </c>
       <c r="H23">
-        <v>1.947193566313175</v>
+        <v>1.952069113839011</v>
       </c>
       <c r="I23">
-        <v>2.871878290241347</v>
+        <v>2.882432934526719</v>
       </c>
       <c r="J23">
-        <v>8.582109045003605</v>
+        <v>8.055040481683291</v>
       </c>
       <c r="K23">
-        <v>14.65603774498863</v>
+        <v>13.90688831213031</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.3733988493528</v>
       </c>
       <c r="M23">
-        <v>13.77543649120374</v>
+        <v>9.41457350490445</v>
       </c>
       <c r="N23">
-        <v>10.44749966809091</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.6842461183373</v>
       </c>
       <c r="P23">
-        <v>11.81024091626222</v>
+        <v>10.45025079409205</v>
       </c>
       <c r="Q23">
-        <v>14.13786598108165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.82188671422135</v>
+      </c>
+      <c r="S23">
+        <v>13.45839427860848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.33134109190864</v>
+        <v>15.96255577231761</v>
       </c>
       <c r="C24">
-        <v>9.199269504808125</v>
+        <v>9.014518272318904</v>
       </c>
       <c r="D24">
-        <v>6.04677657660533</v>
+        <v>6.151172442663627</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.92158823131867</v>
+        <v>17.3646389306371</v>
       </c>
       <c r="G24">
-        <v>21.69969300800696</v>
+        <v>20.53907369645061</v>
       </c>
       <c r="H24">
-        <v>1.685418318507919</v>
+        <v>1.713121703506216</v>
       </c>
       <c r="I24">
-        <v>2.673575671659926</v>
+        <v>2.711303882632051</v>
       </c>
       <c r="J24">
-        <v>8.588269073266003</v>
+        <v>8.806454092534038</v>
       </c>
       <c r="K24">
-        <v>14.63392805752835</v>
+        <v>14.0760560220803</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.66104590064984</v>
       </c>
       <c r="M24">
-        <v>12.91799521447648</v>
+        <v>9.261033633384457</v>
       </c>
       <c r="N24">
-        <v>9.900192401684476</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.90890053920609</v>
       </c>
       <c r="P24">
-        <v>12.00723871509317</v>
+        <v>9.916405705795199</v>
       </c>
       <c r="Q24">
-        <v>13.99766849865682</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.98245152592579</v>
+      </c>
+      <c r="S24">
+        <v>13.58040614354635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.81792809090161</v>
+        <v>14.53249522241638</v>
       </c>
       <c r="C25">
-        <v>8.998692369416402</v>
+        <v>8.740332959268605</v>
       </c>
       <c r="D25">
-        <v>5.6510812741346</v>
+        <v>5.72345811770426</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.29807017306173</v>
+        <v>16.84685851308319</v>
       </c>
       <c r="G25">
-        <v>20.98109020834382</v>
+        <v>19.76536227801717</v>
       </c>
       <c r="H25">
-        <v>1.736040505290639</v>
+        <v>1.688623926723749</v>
       </c>
       <c r="I25">
-        <v>2.531746909575719</v>
+        <v>2.512785357243084</v>
       </c>
       <c r="J25">
-        <v>8.606681775898553</v>
+        <v>8.880707667101607</v>
       </c>
       <c r="K25">
-        <v>14.62697214602601</v>
+        <v>14.14152304901913</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.89567849730142</v>
       </c>
       <c r="M25">
-        <v>11.9216879977428</v>
+        <v>9.041032740422539</v>
       </c>
       <c r="N25">
-        <v>9.274237063844787</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.92263987493199</v>
       </c>
       <c r="P25">
-        <v>12.22574325108904</v>
+        <v>9.302589579053459</v>
       </c>
       <c r="Q25">
-        <v>13.87053897000657</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.17635100248784</v>
+      </c>
+      <c r="S25">
+        <v>13.52728442070024</v>
       </c>
     </row>
   </sheetData>
